--- a/REGULAR/CTO/OLEGARIO TEOFISTA.xlsx
+++ b/REGULAR/CTO/OLEGARIO TEOFISTA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="354">
   <si>
     <t>PERIOD</t>
   </si>
@@ -249,9 +249,6 @@
     <t>1017/18/2019</t>
   </si>
   <si>
-    <t>12/17/2019</t>
-  </si>
-  <si>
     <t>2020</t>
   </si>
   <si>
@@ -1115,6 +1112,9 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>12/2,9/2022</t>
   </si>
 </sst>
 </file>
@@ -1815,8 +1815,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K538" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K538"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K540" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K540"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2145,12 +2145,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K538"/>
+  <dimension ref="A2:K540"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="4065" topLeftCell="A478" activePane="bottomLeft"/>
+      <pane ySplit="4065" topLeftCell="A432" activePane="bottomLeft"/>
       <selection activeCell="E16" sqref="E16"/>
-      <selection pane="bottomLeft" activeCell="K483" sqref="K483"/>
+      <selection pane="bottomLeft" activeCell="E448" sqref="E448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,7 +2317,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>176.01099999999997</v>
+        <v>176.678</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2327,14 +2327,14 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>339.20799999999997</v>
+        <v>343.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="50"/>
       <c r="C10" s="13"/>
@@ -2359,10 +2359,10 @@
         <v>36585</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="13">
-        <v>8.2999999999999741E-2</v>
+        <v>1.25</v>
       </c>
       <c r="D11" s="39">
         <v>0.51700000000000002</v>
@@ -2371,7 +2371,7 @@
       <c r="F11" s="20"/>
       <c r="G11" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>8.2999999999999741E-2</v>
+        <v>1.25</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="13"/>
@@ -2383,7 +2383,7 @@
         <v>36586</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="13">
         <v>1.25</v>
@@ -2407,7 +2407,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="39">
@@ -2429,7 +2429,7 @@
         <v>36617</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" s="13">
         <v>1.25</v>
@@ -2445,13 +2445,13 @@
       <c r="I14" s="13"/>
       <c r="J14" s="11"/>
       <c r="K14" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="39">
@@ -2471,7 +2471,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="39"/>
@@ -2495,7 +2495,7 @@
         <v>36647</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="13">
         <v>1.25</v>
@@ -2519,7 +2519,7 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="39">
@@ -2541,7 +2541,7 @@
         <v>36678</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" s="13">
         <v>1.25</v>
@@ -2565,7 +2565,7 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39">
@@ -2587,7 +2587,7 @@
         <v>36708</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="13">
         <v>1.25</v>
@@ -2611,7 +2611,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
@@ -2633,7 +2633,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39">
@@ -2655,7 +2655,7 @@
         <v>36739</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="13">
         <v>1.25</v>
@@ -2679,7 +2679,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
@@ -2693,7 +2693,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="11"/>
       <c r="K25" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2701,7 +2701,7 @@
         <v>36770</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C26" s="13">
         <v>1.25</v>
@@ -2725,7 +2725,7 @@
         <v>36800</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" s="13">
         <v>1.25</v>
@@ -2749,7 +2749,7 @@
         <v>36831</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="13">
         <v>1.25</v>
@@ -2773,7 +2773,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="39">
@@ -2795,7 +2795,7 @@
         <v>36861</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="13">
         <v>1.25</v>
@@ -2819,7 +2819,7 @@
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39">
@@ -2838,7 +2838,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -2863,7 +2863,7 @@
         <v>36892</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="13">
         <v>1.25</v>
@@ -2881,7 +2881,7 @@
       <c r="I33" s="13"/>
       <c r="J33" s="11"/>
       <c r="K33" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2889,7 +2889,7 @@
         <v>36923</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="13">
         <v>1.25</v>
@@ -2907,13 +2907,13 @@
       <c r="I34" s="13"/>
       <c r="J34" s="11"/>
       <c r="K34" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="39">
@@ -2935,7 +2935,7 @@
         <v>36951</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" s="13">
         <v>1.25</v>
@@ -2959,7 +2959,7 @@
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="39"/>
@@ -2973,13 +2973,13 @@
       <c r="I37" s="13"/>
       <c r="J37" s="11"/>
       <c r="K37" s="49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="39">
@@ -3001,7 +3001,7 @@
         <v>36982</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C39" s="13">
         <v>1.25</v>
@@ -3023,7 +3023,7 @@
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="39"/>
@@ -3037,7 +3037,7 @@
       <c r="I40" s="13"/>
       <c r="J40" s="11"/>
       <c r="K40" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3045,7 +3045,7 @@
         <v>37012</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C41" s="13">
         <v>1.25</v>
@@ -3069,7 +3069,7 @@
         <v>37043</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C42" s="13">
         <v>1.25</v>
@@ -3093,7 +3093,7 @@
         <v>37073</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" s="13">
         <v>1.25</v>
@@ -3117,7 +3117,7 @@
         <v>37104</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" s="13">
         <v>1.25</v>
@@ -3141,7 +3141,7 @@
         <v>37135</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C45" s="13">
         <v>1.25</v>
@@ -3165,7 +3165,7 @@
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="39">
@@ -3187,7 +3187,7 @@
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="39"/>
@@ -3209,7 +3209,7 @@
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="39">
@@ -3231,7 +3231,7 @@
         <v>37165</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49" s="13">
         <v>1.25</v>
@@ -3255,7 +3255,7 @@
         <v>37196</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C50" s="13">
         <v>1.25</v>
@@ -3279,7 +3279,7 @@
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="39">
@@ -3315,7 +3315,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -3340,7 +3340,7 @@
         <v>37257</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="13">
         <v>1.25</v>
@@ -3364,7 +3364,7 @@
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="39"/>
@@ -3378,13 +3378,13 @@
       <c r="I55" s="13"/>
       <c r="J55" s="11"/>
       <c r="K55" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="39">
@@ -3406,7 +3406,7 @@
         <v>37288</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C57" s="13">
         <v>1.25</v>
@@ -3424,13 +3424,13 @@
       <c r="I57" s="13"/>
       <c r="J57" s="11"/>
       <c r="K57" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="39"/>
@@ -3446,13 +3446,13 @@
       <c r="I58" s="13"/>
       <c r="J58" s="11"/>
       <c r="K58" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="39">
@@ -3474,7 +3474,7 @@
         <v>37316</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C60" s="13">
         <v>1.25</v>
@@ -3492,13 +3492,13 @@
       <c r="I60" s="13"/>
       <c r="J60" s="11"/>
       <c r="K60" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
@@ -3520,7 +3520,7 @@
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
@@ -3534,13 +3534,13 @@
       <c r="I62" s="13"/>
       <c r="J62" s="11"/>
       <c r="K62" s="49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="39">
@@ -3562,7 +3562,7 @@
         <v>37347</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64" s="13">
         <v>1.25</v>
@@ -3580,13 +3580,13 @@
       <c r="I64" s="13"/>
       <c r="J64" s="11"/>
       <c r="K64" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="39">
@@ -3608,7 +3608,7 @@
         <v>37377</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C66" s="13">
         <v>1.25</v>
@@ -3632,7 +3632,7 @@
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="39">
@@ -3651,7 +3651,7 @@
         <v>37408</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C68" s="13">
         <v>1.25</v>
@@ -3673,7 +3673,7 @@
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
@@ -3687,7 +3687,7 @@
       <c r="I69" s="13"/>
       <c r="J69" s="11"/>
       <c r="K69" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -3715,7 +3715,7 @@
         <v>37469</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C71" s="13">
         <v>1.25</v>
@@ -3739,7 +3739,7 @@
         <v>37500</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" s="13">
         <v>1.25</v>
@@ -3765,7 +3765,7 @@
         <v>37530</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
@@ -3791,7 +3791,7 @@
         <v>37561</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C74" s="13">
         <v>1.25</v>
@@ -3809,13 +3809,13 @@
       <c r="I74" s="13"/>
       <c r="J74" s="11"/>
       <c r="K74" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -3834,7 +3834,7 @@
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="39">
@@ -3870,7 +3870,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -3895,7 +3895,7 @@
         <v>37622</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C79" s="13">
         <v>1.25</v>
@@ -3917,7 +3917,7 @@
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -3931,13 +3931,13 @@
       <c r="I80" s="13"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="39">
@@ -3953,7 +3953,7 @@
       <c r="I81" s="13"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -3961,7 +3961,7 @@
         <v>37653</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C82" s="13">
         <v>1.25</v>
@@ -3985,7 +3985,7 @@
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="39">
@@ -4007,7 +4007,7 @@
         <v>37681</v>
       </c>
       <c r="B84" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C84" s="13">
         <v>1.25</v>
@@ -4031,7 +4031,7 @@
         <v>37712</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C85" s="13">
         <v>1.25</v>
@@ -4075,7 +4075,7 @@
         <v>37773</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C87" s="13">
         <v>1.25</v>
@@ -4099,7 +4099,7 @@
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -4123,7 +4123,7 @@
         <v>37803</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C89" s="13">
         <v>1.25</v>
@@ -4147,7 +4147,7 @@
         <v>37834</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C90" s="13">
         <v>1.25</v>
@@ -4171,7 +4171,7 @@
         <v>37865</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C91" s="13">
         <v>1.25</v>
@@ -4217,7 +4217,7 @@
         <v>37926</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C93" s="13">
         <v>1.25</v>
@@ -4241,7 +4241,7 @@
         <v>37956</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C94" s="13">
         <v>1.25</v>
@@ -4265,7 +4265,7 @@
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="39">
@@ -4285,7 +4285,7 @@
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="39">
@@ -4304,7 +4304,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4329,7 +4329,7 @@
         <v>37987</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C98" s="13">
         <v>1.25</v>
@@ -4351,7 +4351,7 @@
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -4365,7 +4365,7 @@
       <c r="I99" s="13"/>
       <c r="J99" s="11"/>
       <c r="K99" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -4373,7 +4373,7 @@
         <v>38018</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C100" s="13">
         <v>1.25</v>
@@ -4397,7 +4397,7 @@
         <v>38047</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C101" s="13">
         <v>1.25</v>
@@ -4415,13 +4415,13 @@
       <c r="I101" s="13"/>
       <c r="J101" s="11"/>
       <c r="K101" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C102" s="13"/>
       <c r="D102" s="39">
@@ -4443,7 +4443,7 @@
         <v>38078</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C103" s="13">
         <v>1.25</v>
@@ -4467,7 +4467,7 @@
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="39">
@@ -4489,7 +4489,7 @@
         <v>38108</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C105" s="13">
         <v>1.25</v>
@@ -4513,7 +4513,7 @@
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="39">
@@ -4535,7 +4535,7 @@
         <v>38139</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C107" s="13">
         <v>1.25</v>
@@ -4559,7 +4559,7 @@
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="39">
@@ -4581,7 +4581,7 @@
         <v>38169</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C109" s="13">
         <v>1.25</v>
@@ -4605,7 +4605,7 @@
         <v>38200</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C110" s="13">
         <v>1.25</v>
@@ -4629,7 +4629,7 @@
         <v>38231</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C111" s="13">
         <v>1.25</v>
@@ -4645,13 +4645,13 @@
       <c r="I111" s="13"/>
       <c r="J111" s="11"/>
       <c r="K111" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="39">
@@ -4673,7 +4673,7 @@
         <v>38261</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C113" s="13">
         <v>1.25</v>
@@ -4697,7 +4697,7 @@
         <v>38292</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C114" s="13">
         <v>1.25</v>
@@ -4721,7 +4721,7 @@
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C115" s="13"/>
       <c r="D115" s="39">
@@ -4743,7 +4743,7 @@
         <v>38322</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C116" s="13">
         <v>1.25</v>
@@ -4767,7 +4767,7 @@
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C117" s="13"/>
       <c r="D117" s="39">
@@ -4786,7 +4786,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -4811,7 +4811,7 @@
         <v>38353</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C119" s="13">
         <v>1.25</v>
@@ -4835,7 +4835,7 @@
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -4857,7 +4857,7 @@
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -4871,13 +4871,13 @@
       <c r="I121" s="13"/>
       <c r="J121" s="11"/>
       <c r="K121" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C122" s="13"/>
       <c r="D122" s="39">
@@ -4899,7 +4899,7 @@
         <v>38384</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C123" s="13">
         <v>1.25</v>
@@ -4923,7 +4923,7 @@
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C124" s="13"/>
       <c r="D124" s="39">
@@ -4945,7 +4945,7 @@
         <v>38412</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C125" s="13">
         <v>1.25</v>
@@ -4969,7 +4969,7 @@
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -4991,7 +4991,7 @@
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="39">
@@ -5013,7 +5013,7 @@
         <v>38443</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C128" s="13">
         <v>1.25</v>
@@ -5037,7 +5037,7 @@
         <v>38473</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C129" s="13">
         <v>1.25</v>
@@ -5061,7 +5061,7 @@
         <v>38504</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C130" s="13">
         <v>1.25</v>
@@ -5079,13 +5079,13 @@
       <c r="I130" s="13"/>
       <c r="J130" s="11"/>
       <c r="K130" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
@@ -5107,7 +5107,7 @@
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="39">
@@ -5129,7 +5129,7 @@
         <v>38534</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C133" s="13">
         <v>1.25</v>
@@ -5153,7 +5153,7 @@
         <v>38565</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C134" s="13">
         <v>1.25</v>
@@ -5169,13 +5169,13 @@
       <c r="I134" s="13"/>
       <c r="J134" s="11"/>
       <c r="K134" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C135" s="13"/>
       <c r="D135" s="39"/>
@@ -5189,13 +5189,13 @@
       <c r="I135" s="13"/>
       <c r="J135" s="11"/>
       <c r="K135" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23"/>
       <c r="B136" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C136" s="13"/>
       <c r="D136" s="39">
@@ -5217,7 +5217,7 @@
         <v>38596</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C137" s="13">
         <v>1.25</v>
@@ -5241,7 +5241,7 @@
         <v>38626</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C138" s="13">
         <v>1.25</v>
@@ -5265,7 +5265,7 @@
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C139" s="13"/>
       <c r="D139" s="39"/>
@@ -5284,7 +5284,7 @@
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="39">
@@ -5303,7 +5303,7 @@
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C141" s="13"/>
       <c r="D141" s="39">
@@ -5322,7 +5322,7 @@
         <v>38657</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C142" s="13">
         <v>1.25</v>
@@ -5346,7 +5346,7 @@
         <v>38687</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C143" s="13">
         <v>1.25</v>
@@ -5364,13 +5364,13 @@
       <c r="I143" s="13"/>
       <c r="J143" s="11"/>
       <c r="K143" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C144" s="13"/>
       <c r="D144" s="39">
@@ -5386,7 +5386,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5411,7 +5411,7 @@
         <v>38718</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C146" s="13">
         <v>1.25</v>
@@ -5429,13 +5429,13 @@
       <c r="I146" s="13"/>
       <c r="J146" s="11"/>
       <c r="K146" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C147" s="13"/>
       <c r="D147" s="39"/>
@@ -5449,13 +5449,13 @@
       <c r="I147" s="13"/>
       <c r="J147" s="11"/>
       <c r="K147" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C148" s="13"/>
       <c r="D148" s="39"/>
@@ -5469,13 +5469,13 @@
       <c r="I148" s="13"/>
       <c r="J148" s="11"/>
       <c r="K148" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C149" s="13"/>
       <c r="D149" s="39">
@@ -5491,13 +5491,13 @@
       <c r="I149" s="13"/>
       <c r="J149" s="11"/>
       <c r="K149" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C150" s="13"/>
       <c r="D150" s="39">
@@ -5519,7 +5519,7 @@
         <v>38749</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C151" s="13">
         <v>1.25</v>
@@ -5543,7 +5543,7 @@
         <v>38777</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C152" s="13">
         <v>1.25</v>
@@ -5567,7 +5567,7 @@
         <v>38808</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C153" s="13">
         <v>1.25</v>
@@ -5591,7 +5591,7 @@
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C154" s="13"/>
       <c r="D154" s="39"/>
@@ -5613,7 +5613,7 @@
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C155" s="13"/>
       <c r="D155" s="39"/>
@@ -5635,7 +5635,7 @@
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C156" s="13"/>
       <c r="D156" s="39"/>
@@ -5657,7 +5657,7 @@
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C157" s="13"/>
       <c r="D157" s="39">
@@ -5679,7 +5679,7 @@
         <v>38838</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C158" s="13">
         <v>1.25</v>
@@ -5703,7 +5703,7 @@
         <v>38869</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C159" s="13">
         <v>1.25</v>
@@ -5721,13 +5721,13 @@
       <c r="I159" s="13"/>
       <c r="J159" s="11"/>
       <c r="K159" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C160" s="13"/>
       <c r="D160" s="39"/>
@@ -5749,7 +5749,7 @@
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C161" s="13"/>
       <c r="D161" s="39">
@@ -5771,7 +5771,7 @@
         <v>38899</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C162" s="13">
         <v>1.25</v>
@@ -5795,7 +5795,7 @@
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C163" s="13"/>
       <c r="D163" s="39">
@@ -5817,7 +5817,7 @@
         <v>38930</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C164" s="13">
         <v>1.25</v>
@@ -5841,7 +5841,7 @@
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C165" s="13"/>
       <c r="D165" s="39"/>
@@ -5855,13 +5855,13 @@
       <c r="I165" s="13"/>
       <c r="J165" s="11"/>
       <c r="K165" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C166" s="13"/>
       <c r="D166" s="39">
@@ -5883,7 +5883,7 @@
         <v>38961</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C167" s="13">
         <v>1.25</v>
@@ -5907,7 +5907,7 @@
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C168" s="13"/>
       <c r="D168" s="39">
@@ -5929,7 +5929,7 @@
         <v>38991</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C169" s="13">
         <v>1.25</v>
@@ -5953,7 +5953,7 @@
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C170" s="13"/>
       <c r="D170" s="39"/>
@@ -5975,7 +5975,7 @@
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C171" s="13"/>
       <c r="D171" s="39">
@@ -5997,7 +5997,7 @@
         <v>39022</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C172" s="13">
         <v>1.25</v>
@@ -6015,13 +6015,13 @@
       <c r="I172" s="13"/>
       <c r="J172" s="11"/>
       <c r="K172" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C173" s="13"/>
       <c r="D173" s="39"/>
@@ -6043,7 +6043,7 @@
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="39">
@@ -6065,7 +6065,7 @@
         <v>39052</v>
       </c>
       <c r="B175" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C175" s="13">
         <v>1.25</v>
@@ -6086,7 +6086,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -6111,7 +6111,7 @@
         <v>39083</v>
       </c>
       <c r="B177" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C177" s="13">
         <v>1.25</v>
@@ -6135,7 +6135,7 @@
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C178" s="13"/>
       <c r="D178" s="39"/>
@@ -6149,13 +6149,13 @@
       <c r="I178" s="13"/>
       <c r="J178" s="11"/>
       <c r="K178" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C179" s="13"/>
       <c r="D179" s="39">
@@ -6177,7 +6177,7 @@
         <v>39114</v>
       </c>
       <c r="B180" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C180" s="13">
         <v>1.25</v>
@@ -6201,7 +6201,7 @@
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C181" s="13"/>
       <c r="D181" s="39">
@@ -6223,7 +6223,7 @@
         <v>39142</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C182" s="13">
         <v>1.25</v>
@@ -6247,7 +6247,7 @@
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C183" s="13"/>
       <c r="D183" s="39">
@@ -6269,7 +6269,7 @@
         <v>39173</v>
       </c>
       <c r="B184" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C184" s="13">
         <v>1.25</v>
@@ -6293,7 +6293,7 @@
         <v>39203</v>
       </c>
       <c r="B185" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C185" s="13">
         <v>1.25</v>
@@ -6317,7 +6317,7 @@
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C186" s="13"/>
       <c r="D186" s="39"/>
@@ -6331,13 +6331,13 @@
       <c r="I186" s="13"/>
       <c r="J186" s="11"/>
       <c r="K186" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C187" s="13"/>
       <c r="D187" s="39">
@@ -6359,7 +6359,7 @@
         <v>39234</v>
       </c>
       <c r="B188" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C188" s="13">
         <v>1.25</v>
@@ -6383,7 +6383,7 @@
         <v>39264</v>
       </c>
       <c r="B189" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C189" s="13">
         <v>1.25</v>
@@ -6407,7 +6407,7 @@
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C190" s="13"/>
       <c r="D190" s="39"/>
@@ -6421,13 +6421,13 @@
       <c r="I190" s="13"/>
       <c r="J190" s="11"/>
       <c r="K190" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C191" s="13"/>
       <c r="D191" s="39">
@@ -6449,7 +6449,7 @@
         <v>39295</v>
       </c>
       <c r="B192" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C192" s="13">
         <v>1.25</v>
@@ -6473,7 +6473,7 @@
         <v>39326</v>
       </c>
       <c r="B193" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C193" s="13">
         <v>1.25</v>
@@ -6497,7 +6497,7 @@
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C194" s="13"/>
       <c r="D194" s="39">
@@ -6519,7 +6519,7 @@
         <v>39356</v>
       </c>
       <c r="B195" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C195" s="13">
         <v>1.25</v>
@@ -6543,7 +6543,7 @@
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23"/>
       <c r="B196" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C196" s="13"/>
       <c r="D196" s="39">
@@ -6562,7 +6562,7 @@
         <v>39387</v>
       </c>
       <c r="B197" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C197" s="13">
         <v>1.25</v>
@@ -6580,13 +6580,13 @@
       <c r="I197" s="13"/>
       <c r="J197" s="11"/>
       <c r="K197" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C198" s="13"/>
       <c r="D198" s="39"/>
@@ -6608,7 +6608,7 @@
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C199" s="13"/>
       <c r="D199" s="39">
@@ -6630,7 +6630,7 @@
         <v>39417</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C200" s="13">
         <v>1.25</v>
@@ -6651,7 +6651,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -6676,7 +6676,7 @@
         <v>39448</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C202" s="13">
         <v>1.25</v>
@@ -6698,7 +6698,7 @@
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C203" s="13"/>
       <c r="D203" s="39">
@@ -6718,7 +6718,7 @@
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C204" s="13"/>
       <c r="D204" s="39"/>
@@ -6732,13 +6732,13 @@
       <c r="I204" s="13"/>
       <c r="J204" s="11"/>
       <c r="K204" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C205" s="13"/>
       <c r="D205" s="39"/>
@@ -6752,7 +6752,7 @@
       <c r="I205" s="13"/>
       <c r="J205" s="11"/>
       <c r="K205" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -6760,7 +6760,7 @@
         <v>39479</v>
       </c>
       <c r="B206" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C206" s="13">
         <v>1.25</v>
@@ -6784,7 +6784,7 @@
         <v>39508</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C207" s="13">
         <v>1.25</v>
@@ -6808,7 +6808,7 @@
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C208" s="13"/>
       <c r="D208" s="39"/>
@@ -6830,7 +6830,7 @@
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C209" s="13"/>
       <c r="D209" s="39">
@@ -6852,7 +6852,7 @@
         <v>39539</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C210" s="13">
         <v>1.25</v>
@@ -6868,13 +6868,13 @@
       <c r="I210" s="13"/>
       <c r="J210" s="11"/>
       <c r="K210" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C211" s="13"/>
       <c r="D211" s="39">
@@ -6896,7 +6896,7 @@
         <v>39569</v>
       </c>
       <c r="B212" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C212" s="13">
         <v>1.25</v>
@@ -6920,7 +6920,7 @@
         <v>39600</v>
       </c>
       <c r="B213" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C213" s="13">
         <v>1.25</v>
@@ -6944,7 +6944,7 @@
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C214" s="13"/>
       <c r="D214" s="39"/>
@@ -6966,7 +6966,7 @@
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C215" s="13"/>
       <c r="D215" s="39">
@@ -6988,7 +6988,7 @@
         <v>39630</v>
       </c>
       <c r="B216" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C216" s="13">
         <v>1.25</v>
@@ -7012,7 +7012,7 @@
         <v>39661</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C217" s="13">
         <v>1.25</v>
@@ -7036,7 +7036,7 @@
         <v>39692</v>
       </c>
       <c r="B218" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C218" s="13">
         <v>1.25</v>
@@ -7060,7 +7060,7 @@
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C219" s="13"/>
       <c r="D219" s="39"/>
@@ -7082,7 +7082,7 @@
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C220" s="13"/>
       <c r="D220" s="39">
@@ -7104,7 +7104,7 @@
         <v>39722</v>
       </c>
       <c r="B221" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C221" s="13">
         <v>1.25</v>
@@ -7128,7 +7128,7 @@
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C222" s="13"/>
       <c r="D222" s="39">
@@ -7150,7 +7150,7 @@
         <v>39753</v>
       </c>
       <c r="B223" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C223" s="13">
         <v>1.25</v>
@@ -7174,7 +7174,7 @@
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C224" s="13"/>
       <c r="D224" s="39">
@@ -7196,7 +7196,7 @@
         <v>39783</v>
       </c>
       <c r="B225" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C225" s="13">
         <v>1.25</v>
@@ -7217,7 +7217,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -7242,7 +7242,7 @@
         <v>39814</v>
       </c>
       <c r="B227" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C227" s="13">
         <v>1.25</v>
@@ -7258,13 +7258,13 @@
       <c r="I227" s="13"/>
       <c r="J227" s="11"/>
       <c r="K227" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C228" s="13"/>
       <c r="D228" s="39">
@@ -7286,7 +7286,7 @@
         <v>39845</v>
       </c>
       <c r="B229" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C229" s="13">
         <v>1.25</v>
@@ -7308,7 +7308,7 @@
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C230" s="13"/>
       <c r="D230" s="39"/>
@@ -7332,7 +7332,7 @@
         <v>39873</v>
       </c>
       <c r="B231" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C231" s="13">
         <v>1.25</v>
@@ -7348,13 +7348,13 @@
       <c r="I231" s="13"/>
       <c r="J231" s="11"/>
       <c r="K231" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C232" s="13"/>
       <c r="D232" s="39"/>
@@ -7376,7 +7376,7 @@
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C233" s="13"/>
       <c r="D233" s="39">
@@ -7398,7 +7398,7 @@
         <v>39904</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C234" s="13">
         <v>1.25</v>
@@ -7422,7 +7422,7 @@
         <v>39934</v>
       </c>
       <c r="B235" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C235" s="13">
         <v>1.25</v>
@@ -7446,7 +7446,7 @@
         <v>39965</v>
       </c>
       <c r="B236" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C236" s="13">
         <v>1.25</v>
@@ -7470,7 +7470,7 @@
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C237" s="13"/>
       <c r="D237" s="39">
@@ -7492,7 +7492,7 @@
         <v>39995</v>
       </c>
       <c r="B238" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C238" s="13">
         <v>1.25</v>
@@ -7516,7 +7516,7 @@
         <v>40026</v>
       </c>
       <c r="B239" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C239" s="13">
         <v>1.25</v>
@@ -7540,7 +7540,7 @@
         <v>40057</v>
       </c>
       <c r="B240" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C240" s="13">
         <v>1.25</v>
@@ -7556,13 +7556,13 @@
       <c r="I240" s="13"/>
       <c r="J240" s="11"/>
       <c r="K240" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C241" s="13"/>
       <c r="D241" s="39"/>
@@ -7584,7 +7584,7 @@
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C242" s="13"/>
       <c r="D242" s="39">
@@ -7606,7 +7606,7 @@
         <v>40087</v>
       </c>
       <c r="B243" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C243" s="13">
         <v>1.25</v>
@@ -7630,7 +7630,7 @@
         <v>40118</v>
       </c>
       <c r="B244" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C244" s="13">
         <v>1.25</v>
@@ -7654,7 +7654,7 @@
         <v>40148</v>
       </c>
       <c r="B245" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C245" s="13">
         <v>1.25</v>
@@ -7675,7 +7675,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="13"/>
@@ -7700,7 +7700,7 @@
         <v>40179</v>
       </c>
       <c r="B247" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C247" s="13">
         <v>1.25</v>
@@ -7716,13 +7716,13 @@
       <c r="I247" s="13"/>
       <c r="J247" s="11"/>
       <c r="K247" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C248" s="13"/>
       <c r="D248" s="39">
@@ -7744,7 +7744,7 @@
         <v>40210</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C249" s="13">
         <v>1.25</v>
@@ -7768,7 +7768,7 @@
         <v>40238</v>
       </c>
       <c r="B250" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C250" s="13">
         <v>1.25</v>
@@ -7792,7 +7792,7 @@
         <v>40269</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C251" s="13">
         <v>1.25</v>
@@ -7816,7 +7816,7 @@
         <v>40299</v>
       </c>
       <c r="B252" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C252" s="13">
         <v>1.25</v>
@@ -7840,7 +7840,7 @@
         <v>40330</v>
       </c>
       <c r="B253" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C253" s="13">
         <v>1.25</v>
@@ -7864,7 +7864,7 @@
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C254" s="13"/>
       <c r="D254" s="39">
@@ -7886,7 +7886,7 @@
         <v>40360</v>
       </c>
       <c r="B255" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C255" s="13">
         <v>1.25</v>
@@ -7910,7 +7910,7 @@
         <v>40391</v>
       </c>
       <c r="B256" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C256" s="13">
         <v>1.25</v>
@@ -7934,7 +7934,7 @@
         <v>40422</v>
       </c>
       <c r="B257" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C257" s="13">
         <v>1.25</v>
@@ -7958,7 +7958,7 @@
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C258" s="13"/>
       <c r="D258" s="39"/>
@@ -7972,13 +7972,13 @@
       <c r="I258" s="13"/>
       <c r="J258" s="11"/>
       <c r="K258" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C259" s="13"/>
       <c r="D259" s="39">
@@ -8000,7 +8000,7 @@
         <v>40452</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C260" s="13">
         <v>1.25</v>
@@ -8024,7 +8024,7 @@
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C261" s="13"/>
       <c r="D261" s="39">
@@ -8046,7 +8046,7 @@
         <v>40483</v>
       </c>
       <c r="B262" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C262" s="13">
         <v>1.25</v>
@@ -8064,13 +8064,13 @@
       <c r="I262" s="13"/>
       <c r="J262" s="11"/>
       <c r="K262" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C263" s="13"/>
       <c r="D263" s="39">
@@ -8092,7 +8092,7 @@
         <v>40513</v>
       </c>
       <c r="B264" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C264" s="13">
         <v>1.25</v>
@@ -8113,7 +8113,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="13"/>
@@ -8138,7 +8138,7 @@
         <v>40544</v>
       </c>
       <c r="B266" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C266" s="13">
         <v>1.25</v>
@@ -8154,13 +8154,13 @@
       <c r="I266" s="13"/>
       <c r="J266" s="11"/>
       <c r="K266" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C267" s="13"/>
       <c r="D267" s="39">
@@ -8182,7 +8182,7 @@
         <v>40575</v>
       </c>
       <c r="B268" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C268" s="13">
         <v>1.25</v>
@@ -8206,7 +8206,7 @@
         <v>40603</v>
       </c>
       <c r="B269" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C269" s="13">
         <v>1.25</v>
@@ -8230,7 +8230,7 @@
         <v>40634</v>
       </c>
       <c r="B270" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C270" s="13">
         <v>1.25</v>
@@ -8254,7 +8254,7 @@
         <v>40664</v>
       </c>
       <c r="B271" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C271" s="13">
         <v>1.25</v>
@@ -8272,13 +8272,13 @@
       <c r="I271" s="13"/>
       <c r="J271" s="11"/>
       <c r="K271" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C272" s="13"/>
       <c r="D272" s="39"/>
@@ -8300,7 +8300,7 @@
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C273" s="13"/>
       <c r="D273" s="39">
@@ -8322,7 +8322,7 @@
         <v>40695</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C274" s="13">
         <v>1.25</v>
@@ -8340,13 +8340,13 @@
       <c r="I274" s="13"/>
       <c r="J274" s="11"/>
       <c r="K274" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C275" s="13"/>
       <c r="D275" s="39">
@@ -8368,7 +8368,7 @@
         <v>40725</v>
       </c>
       <c r="B276" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C276" s="13">
         <v>1.25</v>
@@ -8386,13 +8386,13 @@
       <c r="I276" s="13"/>
       <c r="J276" s="11"/>
       <c r="K276" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C277" s="13"/>
       <c r="D277" s="39">
@@ -8414,7 +8414,7 @@
         <v>40756</v>
       </c>
       <c r="B278" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C278" s="13">
         <v>1.25</v>
@@ -8436,7 +8436,7 @@
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C279" s="13"/>
       <c r="D279" s="39">
@@ -8458,7 +8458,7 @@
         <v>40787</v>
       </c>
       <c r="B280" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C280" s="13">
         <v>1.25</v>
@@ -8474,13 +8474,13 @@
       <c r="I280" s="13"/>
       <c r="J280" s="11"/>
       <c r="K280" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C281" s="13"/>
       <c r="D281" s="39">
@@ -8502,7 +8502,7 @@
         <v>40817</v>
       </c>
       <c r="B282" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C282" s="13">
         <v>1.25</v>
@@ -8526,7 +8526,7 @@
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C283" s="13"/>
       <c r="D283" s="39"/>
@@ -8548,7 +8548,7 @@
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C284" s="13"/>
       <c r="D284" s="39">
@@ -8564,13 +8564,13 @@
       <c r="I284" s="13"/>
       <c r="J284" s="11"/>
       <c r="K284" s="20" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C285" s="13"/>
       <c r="D285" s="39">
@@ -8592,7 +8592,7 @@
         <v>40848</v>
       </c>
       <c r="B286" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C286" s="13">
         <v>1.25</v>
@@ -8616,7 +8616,7 @@
         <v>40878</v>
       </c>
       <c r="B287" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C287" s="13">
         <v>1.25</v>
@@ -8637,7 +8637,7 @@
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B288" s="20"/>
       <c r="C288" s="13"/>
@@ -8662,7 +8662,7 @@
         <v>40909</v>
       </c>
       <c r="B289" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C289" s="13">
         <v>1.25</v>
@@ -8686,7 +8686,7 @@
         <v>40940</v>
       </c>
       <c r="B290" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C290" s="13">
         <v>1.25</v>
@@ -8710,7 +8710,7 @@
         <v>40969</v>
       </c>
       <c r="B291" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C291" s="13">
         <v>1.25</v>
@@ -8734,7 +8734,7 @@
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C292" s="13"/>
       <c r="D292" s="39">
@@ -8756,7 +8756,7 @@
         <v>41000</v>
       </c>
       <c r="B293" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C293" s="13">
         <v>1.25</v>
@@ -8774,13 +8774,13 @@
       <c r="I293" s="13"/>
       <c r="J293" s="11"/>
       <c r="K293" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C294" s="13"/>
       <c r="D294" s="39"/>
@@ -8802,7 +8802,7 @@
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C295" s="13"/>
       <c r="D295" s="39">
@@ -8824,7 +8824,7 @@
         <v>41030</v>
       </c>
       <c r="B296" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C296" s="13">
         <v>1.25</v>
@@ -8842,13 +8842,13 @@
       <c r="I296" s="13"/>
       <c r="J296" s="11"/>
       <c r="K296" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C297" s="13"/>
       <c r="D297" s="39"/>
@@ -8861,13 +8861,13 @@
       <c r="I297" s="13"/>
       <c r="J297" s="11"/>
       <c r="K297" s="20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C298" s="13"/>
       <c r="D298" s="39">
@@ -8886,7 +8886,7 @@
         <v>41061</v>
       </c>
       <c r="B299" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C299" s="13">
         <v>1.25</v>
@@ -8910,7 +8910,7 @@
         <v>41091</v>
       </c>
       <c r="B300" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C300" s="13">
         <v>1.25</v>
@@ -8928,13 +8928,13 @@
       <c r="I300" s="13"/>
       <c r="J300" s="11"/>
       <c r="K300" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C301" s="13"/>
       <c r="D301" s="39">
@@ -8956,7 +8956,7 @@
         <v>41122</v>
       </c>
       <c r="B302" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C302" s="13">
         <v>1.25</v>
@@ -8980,7 +8980,7 @@
         <v>41153</v>
       </c>
       <c r="B303" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C303" s="13">
         <v>1.25</v>
@@ -8996,13 +8996,13 @@
       <c r="I303" s="13"/>
       <c r="J303" s="11"/>
       <c r="K303" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C304" s="13"/>
       <c r="D304" s="39"/>
@@ -9016,13 +9016,13 @@
       <c r="I304" s="13"/>
       <c r="J304" s="11"/>
       <c r="K304" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C305" s="13"/>
       <c r="D305" s="39">
@@ -9044,7 +9044,7 @@
         <v>41183</v>
       </c>
       <c r="B306" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C306" s="13">
         <v>1.25</v>
@@ -9068,7 +9068,7 @@
         <v>41214</v>
       </c>
       <c r="B307" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C307" s="13">
         <v>1.25</v>
@@ -9092,7 +9092,7 @@
         <v>41244</v>
       </c>
       <c r="B308" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C308" s="13">
         <v>1.25</v>
@@ -9116,7 +9116,7 @@
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C309" s="13"/>
       <c r="D309" s="39"/>
@@ -9135,7 +9135,7 @@
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C310" s="13"/>
       <c r="D310" s="39">
@@ -9151,7 +9151,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B311" s="20"/>
       <c r="C311" s="13"/>
@@ -9176,7 +9176,7 @@
         <v>41275</v>
       </c>
       <c r="B312" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C312" s="13">
         <v>1.25</v>
@@ -9200,7 +9200,7 @@
         <v>41306</v>
       </c>
       <c r="B313" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C313" s="13">
         <v>1.25</v>
@@ -9218,13 +9218,13 @@
       <c r="I313" s="13"/>
       <c r="J313" s="11"/>
       <c r="K313" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23"/>
       <c r="B314" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C314" s="13"/>
       <c r="D314" s="39">
@@ -9246,7 +9246,7 @@
         <v>41334</v>
       </c>
       <c r="B315" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C315" s="13">
         <v>1.25</v>
@@ -9270,7 +9270,7 @@
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C316" s="13"/>
       <c r="D316" s="39">
@@ -9292,7 +9292,7 @@
         <v>41365</v>
       </c>
       <c r="B317" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C317" s="13">
         <v>1.25</v>
@@ -9316,7 +9316,7 @@
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C318" s="13"/>
       <c r="D318" s="39">
@@ -9332,13 +9332,13 @@
       <c r="I318" s="13"/>
       <c r="J318" s="11"/>
       <c r="K318" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C319" s="13"/>
       <c r="D319" s="39">
@@ -9360,7 +9360,7 @@
         <v>41395</v>
       </c>
       <c r="B320" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C320" s="13">
         <v>1.25</v>
@@ -9378,13 +9378,13 @@
       <c r="I320" s="13"/>
       <c r="J320" s="11"/>
       <c r="K320" s="20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C321" s="13"/>
       <c r="D321" s="39">
@@ -9406,7 +9406,7 @@
         <v>41426</v>
       </c>
       <c r="B322" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C322" s="13">
         <v>1.25</v>
@@ -9430,7 +9430,7 @@
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C323" s="13"/>
       <c r="D323" s="39">
@@ -9452,7 +9452,7 @@
         <v>41456</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C324" s="13">
         <v>1.25</v>
@@ -9476,7 +9476,7 @@
         <v>41487</v>
       </c>
       <c r="B325" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C325" s="13">
         <v>1.25</v>
@@ -9500,7 +9500,7 @@
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C326" s="13"/>
       <c r="D326" s="39">
@@ -9522,7 +9522,7 @@
         <v>41518</v>
       </c>
       <c r="B327" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C327" s="13">
         <v>1.25</v>
@@ -9546,7 +9546,7 @@
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C328" s="13"/>
       <c r="D328" s="39"/>
@@ -9560,13 +9560,13 @@
       <c r="I328" s="13"/>
       <c r="J328" s="11"/>
       <c r="K328" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C329" s="13"/>
       <c r="D329" s="39"/>
@@ -9580,13 +9580,13 @@
       <c r="I329" s="13"/>
       <c r="J329" s="11"/>
       <c r="K329" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C330" s="13"/>
       <c r="D330" s="39">
@@ -9608,7 +9608,7 @@
         <v>41548</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C331" s="13">
         <v>1.25</v>
@@ -9624,13 +9624,13 @@
       <c r="I331" s="13"/>
       <c r="J331" s="11"/>
       <c r="K331" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C332" s="13"/>
       <c r="D332" s="39">
@@ -9652,7 +9652,7 @@
         <v>41579</v>
       </c>
       <c r="B333" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C333" s="13">
         <v>1.25</v>
@@ -9670,13 +9670,13 @@
       <c r="I333" s="13"/>
       <c r="J333" s="11"/>
       <c r="K333" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C334" s="13"/>
       <c r="D334" s="39">
@@ -9698,7 +9698,7 @@
         <v>41609</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C335" s="13">
         <v>1.25</v>
@@ -9719,7 +9719,7 @@
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B336" s="20"/>
       <c r="C336" s="13"/>
@@ -9744,7 +9744,7 @@
         <v>41640</v>
       </c>
       <c r="B337" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C337" s="13">
         <v>1.25</v>
@@ -9768,7 +9768,7 @@
         <v>41671</v>
       </c>
       <c r="B338" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C338" s="13">
         <v>1.25</v>
@@ -9792,7 +9792,7 @@
         <v>41699</v>
       </c>
       <c r="B339" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C339" s="13">
         <v>1.25</v>
@@ -9816,7 +9816,7 @@
         <v>41730</v>
       </c>
       <c r="B340" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C340" s="13">
         <v>1.25</v>
@@ -9834,13 +9834,13 @@
       <c r="I340" s="13"/>
       <c r="J340" s="11"/>
       <c r="K340" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23"/>
       <c r="B341" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C341" s="13"/>
       <c r="D341" s="39">
@@ -9862,7 +9862,7 @@
         <v>41760</v>
       </c>
       <c r="B342" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C342" s="13">
         <v>1.25</v>
@@ -9878,13 +9878,13 @@
       <c r="I342" s="13"/>
       <c r="J342" s="11"/>
       <c r="K342" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C343" s="13"/>
       <c r="D343" s="39"/>
@@ -9906,7 +9906,7 @@
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C344" s="13"/>
       <c r="D344" s="39"/>
@@ -9920,13 +9920,13 @@
       <c r="I344" s="13"/>
       <c r="J344" s="11"/>
       <c r="K344" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C345" s="13"/>
       <c r="D345" s="39">
@@ -9948,7 +9948,7 @@
         <v>41791</v>
       </c>
       <c r="B346" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C346" s="13">
         <v>1.25</v>
@@ -9972,7 +9972,7 @@
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C347" s="13"/>
       <c r="D347" s="39"/>
@@ -9994,7 +9994,7 @@
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C348" s="13"/>
       <c r="D348" s="39"/>
@@ -10016,7 +10016,7 @@
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C349" s="13"/>
       <c r="D349" s="39">
@@ -10038,7 +10038,7 @@
         <v>41821</v>
       </c>
       <c r="B350" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C350" s="13">
         <v>1.25</v>
@@ -10062,7 +10062,7 @@
         <v>41852</v>
       </c>
       <c r="B351" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C351" s="13">
         <v>1.25</v>
@@ -10086,7 +10086,7 @@
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C352" s="13"/>
       <c r="D352" s="39">
@@ -10108,7 +10108,7 @@
         <v>41883</v>
       </c>
       <c r="B353" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C353" s="13">
         <v>1.25</v>
@@ -10124,13 +10124,13 @@
       <c r="I353" s="13"/>
       <c r="J353" s="11"/>
       <c r="K353" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C354" s="13"/>
       <c r="D354" s="39"/>
@@ -10152,7 +10152,7 @@
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C355" s="13"/>
       <c r="D355" s="39">
@@ -10174,7 +10174,7 @@
         <v>41913</v>
       </c>
       <c r="B356" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C356" s="13">
         <v>1.25</v>
@@ -10198,7 +10198,7 @@
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C357" s="13"/>
       <c r="D357" s="39">
@@ -10220,7 +10220,7 @@
         <v>41944</v>
       </c>
       <c r="B358" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C358" s="13">
         <v>1.25</v>
@@ -10244,7 +10244,7 @@
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C359" s="13"/>
       <c r="D359" s="39">
@@ -10266,7 +10266,7 @@
         <v>41974</v>
       </c>
       <c r="B360" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C360" s="13">
         <v>1.25</v>
@@ -10290,7 +10290,7 @@
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23"/>
       <c r="B361" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C361" s="13"/>
       <c r="D361" s="39">
@@ -10309,7 +10309,7 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -10334,7 +10334,7 @@
         <v>42005</v>
       </c>
       <c r="B363" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C363" s="13">
         <v>1.25</v>
@@ -10350,13 +10350,13 @@
       <c r="I363" s="13"/>
       <c r="J363" s="11"/>
       <c r="K363" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C364" s="13"/>
       <c r="D364" s="39">
@@ -10378,7 +10378,7 @@
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23"/>
       <c r="B365" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C365" s="13"/>
       <c r="D365" s="39">
@@ -10400,7 +10400,7 @@
         <v>42036</v>
       </c>
       <c r="B366" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C366" s="13">
         <v>1.25</v>
@@ -10424,7 +10424,7 @@
         <v>42064</v>
       </c>
       <c r="B367" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C367" s="13">
         <v>1.25</v>
@@ -10440,13 +10440,13 @@
       <c r="I367" s="13"/>
       <c r="J367" s="11"/>
       <c r="K367" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C368" s="13"/>
       <c r="D368" s="39">
@@ -10468,7 +10468,7 @@
         <v>42095</v>
       </c>
       <c r="B369" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C369" s="13">
         <v>1.25</v>
@@ -10486,13 +10486,13 @@
       <c r="I369" s="13"/>
       <c r="J369" s="11"/>
       <c r="K369" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C370" s="13"/>
       <c r="D370" s="39">
@@ -10514,7 +10514,7 @@
         <v>42125</v>
       </c>
       <c r="B371" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C371" s="13">
         <v>1.25</v>
@@ -10540,7 +10540,7 @@
         <v>42156</v>
       </c>
       <c r="B372" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C372" s="13">
         <v>1.25</v>
@@ -10558,13 +10558,13 @@
       <c r="I372" s="13"/>
       <c r="J372" s="11"/>
       <c r="K372" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C373" s="13"/>
       <c r="D373" s="39">
@@ -10586,7 +10586,7 @@
         <v>42186</v>
       </c>
       <c r="B374" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C374" s="13">
         <v>1.25</v>
@@ -10610,7 +10610,7 @@
         <v>42217</v>
       </c>
       <c r="B375" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C375" s="13">
         <v>1.25</v>
@@ -10628,13 +10628,13 @@
       <c r="I375" s="13"/>
       <c r="J375" s="11"/>
       <c r="K375" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C376" s="13"/>
       <c r="D376" s="39">
@@ -10656,7 +10656,7 @@
         <v>42248</v>
       </c>
       <c r="B377" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C377" s="13">
         <v>1.25</v>
@@ -10680,7 +10680,7 @@
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C378" s="13"/>
       <c r="D378" s="39">
@@ -10696,7 +10696,7 @@
       <c r="I378" s="13"/>
       <c r="J378" s="11"/>
       <c r="K378" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
@@ -10704,7 +10704,7 @@
         <v>42278</v>
       </c>
       <c r="B379" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C379" s="13">
         <v>1.25</v>
@@ -10722,7 +10722,7 @@
       <c r="I379" s="13"/>
       <c r="J379" s="11"/>
       <c r="K379" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
@@ -10730,7 +10730,7 @@
         <v>42309</v>
       </c>
       <c r="B380" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C380" s="13">
         <v>1.25</v>
@@ -10752,7 +10752,7 @@
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C381" s="13"/>
       <c r="D381" s="39">
@@ -10774,7 +10774,7 @@
         <v>42339</v>
       </c>
       <c r="B382" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C382" s="13">
         <v>1.25</v>
@@ -10795,7 +10795,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -10820,7 +10820,7 @@
         <v>42370</v>
       </c>
       <c r="B384" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C384" s="13">
         <v>1.25</v>
@@ -10836,7 +10836,7 @@
       <c r="I384" s="13"/>
       <c r="J384" s="11"/>
       <c r="K384" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
@@ -10844,7 +10844,7 @@
         <v>42401</v>
       </c>
       <c r="B385" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C385" s="13">
         <v>1.25</v>
@@ -10862,7 +10862,7 @@
       <c r="I385" s="13"/>
       <c r="J385" s="11"/>
       <c r="K385" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
@@ -10890,7 +10890,7 @@
         <v>42461</v>
       </c>
       <c r="B387" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C387" s="13">
         <v>1.25</v>
@@ -10908,13 +10908,13 @@
       <c r="I387" s="13"/>
       <c r="J387" s="11"/>
       <c r="K387" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23"/>
       <c r="B388" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C388" s="13"/>
       <c r="D388" s="39"/>
@@ -10958,7 +10958,7 @@
         <v>42522</v>
       </c>
       <c r="B390" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C390" s="13">
         <v>1.25</v>
@@ -10976,13 +10976,13 @@
       <c r="I390" s="13"/>
       <c r="J390" s="11"/>
       <c r="K390" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23"/>
       <c r="B391" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C391" s="13"/>
       <c r="D391" s="39"/>
@@ -10998,7 +10998,7 @@
       <c r="I391" s="13"/>
       <c r="J391" s="11"/>
       <c r="K391" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
@@ -11026,7 +11026,7 @@
         <v>42583</v>
       </c>
       <c r="B393" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C393" s="13">
         <v>1.25</v>
@@ -11050,7 +11050,7 @@
         <v>42614</v>
       </c>
       <c r="B394" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C394" s="13">
         <v>1.25</v>
@@ -11068,13 +11068,13 @@
       <c r="I394" s="13"/>
       <c r="J394" s="11"/>
       <c r="K394" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23"/>
       <c r="B395" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C395" s="13"/>
       <c r="D395" s="39"/>
@@ -11087,7 +11087,7 @@
       <c r="I395" s="13"/>
       <c r="J395" s="11"/>
       <c r="K395" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
@@ -11115,7 +11115,7 @@
         <v>42675</v>
       </c>
       <c r="B397" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C397" s="13">
         <v>1.25</v>
@@ -11158,7 +11158,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -11183,7 +11183,7 @@
         <v>42736</v>
       </c>
       <c r="B400" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C400" s="13">
         <v>1.25</v>
@@ -11199,13 +11199,13 @@
       <c r="I400" s="13"/>
       <c r="J400" s="11"/>
       <c r="K400" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C401" s="13"/>
       <c r="D401" s="39"/>
@@ -11218,7 +11218,7 @@
       <c r="I401" s="13"/>
       <c r="J401" s="11"/>
       <c r="K401" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
@@ -11246,7 +11246,7 @@
         <v>42795</v>
       </c>
       <c r="B403" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C403" s="13">
         <v>1.25</v>
@@ -11262,7 +11262,7 @@
       <c r="I403" s="13"/>
       <c r="J403" s="11"/>
       <c r="K403" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
@@ -11290,7 +11290,7 @@
         <v>42856</v>
       </c>
       <c r="B405" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C405" s="13">
         <v>1.25</v>
@@ -11308,13 +11308,13 @@
       <c r="I405" s="13"/>
       <c r="J405" s="11"/>
       <c r="K405" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23"/>
       <c r="B406" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C406" s="13"/>
       <c r="D406" s="39"/>
@@ -11333,7 +11333,7 @@
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C407" s="13"/>
       <c r="D407" s="39"/>
@@ -11352,7 +11352,7 @@
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23"/>
       <c r="B408" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C408" s="13"/>
       <c r="D408" s="39"/>
@@ -11413,7 +11413,7 @@
         <v>42948</v>
       </c>
       <c r="B411" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C411" s="13">
         <v>1.25</v>
@@ -11429,7 +11429,7 @@
       <c r="I411" s="13"/>
       <c r="J411" s="11"/>
       <c r="K411" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
@@ -11457,7 +11457,7 @@
         <v>43009</v>
       </c>
       <c r="B413" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C413" s="13">
         <v>1.25</v>
@@ -11475,13 +11475,13 @@
       <c r="I413" s="13"/>
       <c r="J413" s="11"/>
       <c r="K413" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23"/>
       <c r="B414" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C414" s="13"/>
       <c r="D414" s="39"/>
@@ -11587,7 +11587,7 @@
         <v>43132</v>
       </c>
       <c r="B419" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C419" s="13"/>
       <c r="D419" s="39"/>
@@ -11607,7 +11607,7 @@
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C420" s="13">
         <v>1.25</v>
@@ -11653,7 +11653,7 @@
         <v>43191</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C422" s="42">
         <v>1.25</v>
@@ -11679,7 +11679,7 @@
         <v>43221</v>
       </c>
       <c r="B423" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C423" s="13">
         <v>1.25</v>
@@ -11705,7 +11705,7 @@
         <v>43252</v>
       </c>
       <c r="B424" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C424" s="13">
         <v>1.25</v>
@@ -11729,7 +11729,7 @@
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C425" s="13"/>
       <c r="D425" s="39">
@@ -11753,7 +11753,7 @@
         <v>43282</v>
       </c>
       <c r="B426" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C426" s="13">
         <v>1.25</v>
@@ -11779,7 +11779,7 @@
         <v>43313</v>
       </c>
       <c r="B427" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C427" s="13">
         <v>1.25</v>
@@ -11805,7 +11805,7 @@
         <v>43344</v>
       </c>
       <c r="B428" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C428" s="13">
         <v>1.25</v>
@@ -11831,7 +11831,7 @@
         <v>43374</v>
       </c>
       <c r="B429" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C429" s="13">
         <v>1.25</v>
@@ -11935,7 +11935,7 @@
         <v>43497</v>
       </c>
       <c r="B434" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C434" s="13">
         <v>1.25</v>
@@ -11959,7 +11959,7 @@
         <v>43525</v>
       </c>
       <c r="B435" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C435" s="13">
         <v>1.25</v>
@@ -11983,7 +11983,7 @@
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C436" s="13"/>
       <c r="D436" s="39"/>
@@ -12005,7 +12005,7 @@
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C437" s="13"/>
       <c r="D437" s="39"/>
@@ -12049,7 +12049,7 @@
         <v>43586</v>
       </c>
       <c r="B439" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C439" s="13">
         <v>1.25</v>
@@ -12075,7 +12075,7 @@
         <v>43617</v>
       </c>
       <c r="B440" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C440" s="13">
         <v>1.25</v>
@@ -12101,7 +12101,7 @@
         <v>43647</v>
       </c>
       <c r="B441" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C441" s="13">
         <v>1.25</v>
@@ -12147,7 +12147,7 @@
         <v>43709</v>
       </c>
       <c r="B443" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C443" s="13">
         <v>1.25</v>
@@ -12169,7 +12169,7 @@
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C444" s="13"/>
       <c r="D444" s="39">
@@ -12191,7 +12191,7 @@
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C445" s="13"/>
       <c r="D445" s="39">
@@ -12254,9 +12254,7 @@
       <c r="A448" s="40">
         <v>43800</v>
       </c>
-      <c r="B448" s="20" t="s">
-        <v>110</v>
-      </c>
+      <c r="B448" s="20"/>
       <c r="C448" s="13">
         <v>1.25</v>
       </c>
@@ -12267,18 +12265,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H448" s="39">
-        <v>1</v>
-      </c>
+      <c r="H448" s="39"/>
       <c r="I448" s="9"/>
       <c r="J448" s="11"/>
-      <c r="K448" s="20" t="s">
-        <v>68</v>
-      </c>
+      <c r="K448" s="20"/>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -12299,7 +12293,7 @@
         <v>43831</v>
       </c>
       <c r="B450" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C450" s="13">
         <v>1.25</v>
@@ -12315,7 +12309,7 @@
       <c r="I450" s="9"/>
       <c r="J450" s="11"/>
       <c r="K450" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
@@ -12423,7 +12417,7 @@
         <v>44013</v>
       </c>
       <c r="B456" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C456" s="13">
         <v>1.25</v>
@@ -12439,13 +12433,13 @@
       <c r="I456" s="9"/>
       <c r="J456" s="11"/>
       <c r="K456" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C457" s="13"/>
       <c r="D457" s="39"/>
@@ -12461,7 +12455,7 @@
       <c r="I457" s="9"/>
       <c r="J457" s="11"/>
       <c r="K457" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
@@ -12549,7 +12543,7 @@
         <v>44166</v>
       </c>
       <c r="B462" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C462" s="13">
         <v>1.25</v>
@@ -12570,7 +12564,7 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -12711,7 +12705,7 @@
         <v>44378</v>
       </c>
       <c r="B470" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C470" s="13">
         <v>1.25</v>
@@ -12729,7 +12723,7 @@
       <c r="I470" s="9"/>
       <c r="J470" s="11"/>
       <c r="K470" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
@@ -12757,7 +12751,7 @@
         <v>44440</v>
       </c>
       <c r="B472" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C472" s="13">
         <v>1.25</v>
@@ -12773,7 +12767,7 @@
       <c r="I472" s="9"/>
       <c r="J472" s="11"/>
       <c r="K472" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
@@ -12801,7 +12795,7 @@
         <v>44501</v>
       </c>
       <c r="B474" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C474" s="13"/>
       <c r="D474" s="39"/>
@@ -12821,7 +12815,7 @@
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C475" s="13"/>
       <c r="D475" s="39">
@@ -12837,13 +12831,13 @@
       <c r="I475" s="9"/>
       <c r="J475" s="11"/>
       <c r="K475" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C476" s="13">
         <v>1.25</v>
@@ -12861,7 +12855,7 @@
       <c r="I476" s="9"/>
       <c r="J476" s="11"/>
       <c r="K476" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
@@ -12886,7 +12880,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -12947,7 +12941,7 @@
         <v>44621</v>
       </c>
       <c r="B481" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C481" s="13">
         <v>1.25</v>
@@ -12963,7 +12957,7 @@
       <c r="I481" s="9"/>
       <c r="J481" s="11"/>
       <c r="K481" s="49">
-        <v>44868</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
@@ -13011,7 +13005,7 @@
         <v>44713</v>
       </c>
       <c r="B484" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C484" s="13">
         <v>1.25</v>
@@ -13029,7 +13023,7 @@
       <c r="I484" s="9"/>
       <c r="J484" s="11"/>
       <c r="K484" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
@@ -13037,7 +13031,7 @@
         <v>44743</v>
       </c>
       <c r="B485" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C485" s="13">
         <v>1.25</v>
@@ -13055,7 +13049,7 @@
       <c r="I485" s="9"/>
       <c r="J485" s="11"/>
       <c r="K485" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
@@ -13083,7 +13077,7 @@
         <v>44805</v>
       </c>
       <c r="B487" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C487" s="13">
         <v>1.25</v>
@@ -13105,7 +13099,7 @@
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C488" s="13"/>
       <c r="D488" s="39">
@@ -13147,7 +13141,7 @@
         <v>44866</v>
       </c>
       <c r="B490" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C490" s="13"/>
       <c r="D490" s="39">
@@ -13169,7 +13163,7 @@
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C491" s="13"/>
       <c r="D491" s="39">
@@ -13191,7 +13185,7 @@
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C492" s="13"/>
       <c r="D492" s="39">
@@ -13207,7 +13201,7 @@
       <c r="I492" s="9"/>
       <c r="J492" s="11"/>
       <c r="K492" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
@@ -13215,7 +13209,7 @@
         <v>44896</v>
       </c>
       <c r="B493" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C493" s="13">
         <v>1.25</v>
@@ -13235,10 +13229,10 @@
       <c r="K493" s="20"/>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A494" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="B494" s="20"/>
+      <c r="A494" s="40"/>
+      <c r="B494" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="C494" s="13"/>
       <c r="D494" s="39"/>
       <c r="E494" s="9"/>
@@ -13250,46 +13244,44 @@
       <c r="H494" s="39"/>
       <c r="I494" s="9"/>
       <c r="J494" s="11"/>
-      <c r="K494" s="20"/>
+      <c r="K494" s="49">
+        <v>44896</v>
+      </c>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A495" s="40">
-        <v>44927</v>
-      </c>
+      <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C495" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D495" s="39"/>
+        <v>82</v>
+      </c>
+      <c r="C495" s="13"/>
+      <c r="D495" s="39">
+        <v>2</v>
+      </c>
       <c r="E495" s="9"/>
       <c r="F495" s="20"/>
-      <c r="G495" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G495" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H495" s="39"/>
       <c r="I495" s="9"/>
       <c r="J495" s="11"/>
-      <c r="K495" s="20" t="s">
-        <v>86</v>
+      <c r="K495" s="49" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A496" s="40">
-        <v>44958</v>
+      <c r="A496" s="48" t="s">
+        <v>84</v>
       </c>
       <c r="B496" s="20"/>
-      <c r="C496" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C496" s="13"/>
       <c r="D496" s="39"/>
       <c r="E496" s="9"/>
       <c r="F496" s="20"/>
-      <c r="G496" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G496" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H496" s="39"/>
       <c r="I496" s="9"/>
@@ -13298,9 +13290,11 @@
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B497" s="20"/>
+        <v>44927</v>
+      </c>
+      <c r="B497" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="C497" s="13">
         <v>1.25</v>
       </c>
@@ -13314,15 +13308,15 @@
       <c r="H497" s="39"/>
       <c r="I497" s="9"/>
       <c r="J497" s="11"/>
-      <c r="K497" s="20"/>
+      <c r="K497" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B498" s="20" t="s">
-        <v>107</v>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="B498" s="20"/>
       <c r="C498" s="13">
         <v>1.25</v>
       </c>
@@ -13336,45 +13330,39 @@
       <c r="H498" s="39"/>
       <c r="I498" s="9"/>
       <c r="J498" s="11"/>
-      <c r="K498" s="49">
-        <v>45029</v>
-      </c>
+      <c r="K498" s="20"/>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A499" s="40"/>
-      <c r="B499" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C499" s="13"/>
-      <c r="D499" s="39">
-        <v>1</v>
-      </c>
+      <c r="A499" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B499" s="20"/>
+      <c r="C499" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D499" s="39"/>
       <c r="E499" s="9"/>
       <c r="F499" s="20"/>
-      <c r="G499" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G499" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H499" s="39"/>
       <c r="I499" s="9"/>
       <c r="J499" s="11"/>
-      <c r="K499" s="49">
-        <v>45044</v>
-      </c>
+      <c r="K499" s="20"/>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B500" s="20" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C500" s="13">
         <v>1.25</v>
       </c>
-      <c r="D500" s="39">
-        <v>1</v>
-      </c>
+      <c r="D500" s="39"/>
       <c r="E500" s="9"/>
       <c r="F500" s="20"/>
       <c r="G500" s="13">
@@ -13385,37 +13373,37 @@
       <c r="I500" s="9"/>
       <c r="J500" s="11"/>
       <c r="K500" s="49">
-        <v>45061</v>
+        <v>45029</v>
       </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="C501" s="13"/>
-      <c r="D501" s="39"/>
+      <c r="D501" s="39">
+        <v>1</v>
+      </c>
       <c r="E501" s="9"/>
       <c r="F501" s="20"/>
       <c r="G501" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H501" s="39">
-        <v>1</v>
-      </c>
+      <c r="H501" s="39"/>
       <c r="I501" s="9"/>
       <c r="J501" s="11"/>
       <c r="K501" s="49">
-        <v>45055</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B502" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C502" s="13">
         <v>1.25</v>
@@ -13433,14 +13421,14 @@
       <c r="I502" s="9"/>
       <c r="J502" s="11"/>
       <c r="K502" s="49">
-        <v>45104</v>
+        <v>45061</v>
       </c>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A503" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B503" s="20"/>
+      <c r="A503" s="40"/>
+      <c r="B503" s="20" t="s">
+        <v>351</v>
+      </c>
       <c r="C503" s="13"/>
       <c r="D503" s="39"/>
       <c r="E503" s="9"/>
@@ -13449,41 +13437,55 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H503" s="39"/>
+      <c r="H503" s="39">
+        <v>1</v>
+      </c>
       <c r="I503" s="9"/>
       <c r="J503" s="11"/>
-      <c r="K503" s="20"/>
+      <c r="K503" s="49">
+        <v>45055</v>
+      </c>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B504" s="20"/>
-      <c r="C504" s="13"/>
-      <c r="D504" s="39"/>
+        <v>45078</v>
+      </c>
+      <c r="B504" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C504" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D504" s="39">
+        <v>1</v>
+      </c>
       <c r="E504" s="9"/>
       <c r="F504" s="20"/>
-      <c r="G504" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G504" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H504" s="39"/>
       <c r="I504" s="9"/>
       <c r="J504" s="11"/>
-      <c r="K504" s="20"/>
+      <c r="K504" s="49">
+        <v>45104</v>
+      </c>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B505" s="20"/>
-      <c r="C505" s="13"/>
+      <c r="C505" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D505" s="39"/>
       <c r="E505" s="9"/>
       <c r="F505" s="20"/>
-      <c r="G505" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G505" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H505" s="39"/>
       <c r="I505" s="9"/>
@@ -13492,16 +13494,18 @@
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B506" s="20"/>
-      <c r="C506" s="13"/>
+      <c r="C506" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D506" s="39"/>
       <c r="E506" s="9"/>
       <c r="F506" s="20"/>
-      <c r="G506" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G506" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H506" s="39"/>
       <c r="I506" s="9"/>
@@ -13509,10 +13513,16 @@
       <c r="K506" s="20"/>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A507" s="40"/>
-      <c r="B507" s="20"/>
+      <c r="A507" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B507" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C507" s="13"/>
-      <c r="D507" s="39"/>
+      <c r="D507" s="39">
+        <v>1</v>
+      </c>
       <c r="E507" s="9"/>
       <c r="F507" s="20"/>
       <c r="G507" s="13" t="str">
@@ -13522,10 +13532,14 @@
       <c r="H507" s="39"/>
       <c r="I507" s="9"/>
       <c r="J507" s="11"/>
-      <c r="K507" s="20"/>
+      <c r="K507" s="49">
+        <v>45189</v>
+      </c>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A508" s="40"/>
+      <c r="A508" s="40">
+        <v>45200</v>
+      </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
       <c r="D508" s="39"/>
@@ -14005,20 +14019,52 @@
       <c r="K537" s="20"/>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A538" s="41"/>
-      <c r="B538" s="15"/>
-      <c r="C538" s="42"/>
-      <c r="D538" s="43"/>
+      <c r="A538" s="40"/>
+      <c r="B538" s="20"/>
+      <c r="C538" s="13"/>
+      <c r="D538" s="39"/>
       <c r="E538" s="9"/>
-      <c r="F538" s="15"/>
-      <c r="G538" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H538" s="43"/>
+      <c r="F538" s="20"/>
+      <c r="G538" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H538" s="39"/>
       <c r="I538" s="9"/>
-      <c r="J538" s="12"/>
-      <c r="K538" s="15"/>
+      <c r="J538" s="11"/>
+      <c r="K538" s="20"/>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A539" s="40"/>
+      <c r="B539" s="20"/>
+      <c r="C539" s="13"/>
+      <c r="D539" s="39"/>
+      <c r="E539" s="9"/>
+      <c r="F539" s="20"/>
+      <c r="G539" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H539" s="39"/>
+      <c r="I539" s="9"/>
+      <c r="J539" s="11"/>
+      <c r="K539" s="20"/>
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A540" s="41"/>
+      <c r="B540" s="15"/>
+      <c r="C540" s="42"/>
+      <c r="D540" s="43"/>
+      <c r="E540" s="9"/>
+      <c r="F540" s="15"/>
+      <c r="G540" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H540" s="43"/>
+      <c r="I540" s="9"/>
+      <c r="J540" s="12"/>
+      <c r="K540" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14065,7 +14111,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14168,7 +14214,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
@@ -14193,7 +14239,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>515.21899999999994</v>
+        <v>520.553</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/OLEGARIO TEOFISTA.xlsx
+++ b/REGULAR/CTO/OLEGARIO TEOFISTA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA75A23-9955-41E7-B9BD-9367774F5992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="358">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1120,11 +1119,20 @@
   <si>
     <t>11/22,23/2023</t>
   </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-42)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1802,7 +1810,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1819,26 +1827,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K540" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K540" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K543" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K543"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2145,34 +2153,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K540"/>
+  <dimension ref="A2:K543"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="4068" topLeftCell="A502" activePane="bottomLeft"/>
+      <pane ySplit="4065" topLeftCell="A495" activePane="bottomLeft"/>
       <selection activeCell="E16" sqref="E16"/>
-      <selection pane="bottomLeft" activeCell="C508" sqref="C508:C509"/>
+      <selection pane="bottomLeft" activeCell="E506" sqref="E506"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2195,7 +2203,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2217,7 +2225,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2239,7 +2247,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2247,7 +2255,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2260,7 +2268,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2277,7 +2285,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2312,7 +2320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2321,7 +2329,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>177.428</v>
+        <v>176.59100000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2331,12 +2339,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>347.625</v>
+        <v>348.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>86</v>
       </c>
@@ -2358,7 +2366,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>36585</v>
       </c>
@@ -2382,7 +2390,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>36586</v>
       </c>
@@ -2408,7 +2416,7 @@
         <v>36588</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="20" t="s">
         <v>105</v>
@@ -2428,7 +2436,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>36617</v>
       </c>
@@ -2452,7 +2460,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="20" t="s">
         <v>108</v>
@@ -2472,7 +2480,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="20" t="s">
         <v>109</v>
@@ -2494,7 +2502,7 @@
         <v>36630</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>36647</v>
       </c>
@@ -2520,7 +2528,7 @@
         <v>36661</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="20" t="s">
         <v>110</v>
@@ -2540,7 +2548,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>36678</v>
       </c>
@@ -2566,7 +2574,7 @@
         <v>36706</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>111</v>
@@ -2586,7 +2594,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>36708</v>
       </c>
@@ -2612,7 +2620,7 @@
         <v>36711</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="20" t="s">
         <v>109</v>
@@ -2634,7 +2642,7 @@
         <v>36726</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>113</v>
@@ -2654,7 +2662,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>36739</v>
       </c>
@@ -2680,7 +2688,7 @@
         <v>36740</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>106</v>
@@ -2700,7 +2708,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>36770</v>
       </c>
@@ -2724,7 +2732,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>36800</v>
       </c>
@@ -2748,7 +2756,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>36831</v>
       </c>
@@ -2774,7 +2782,7 @@
         <v>36853</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="20" t="s">
         <v>118</v>
@@ -2794,7 +2802,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="49"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>36861</v>
       </c>
@@ -2820,7 +2828,7 @@
         <v>36889</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="20" t="s">
         <v>119</v>
@@ -2840,7 +2848,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>87</v>
       </c>
@@ -2862,7 +2870,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>36892</v>
       </c>
@@ -2888,7 +2896,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>36923</v>
       </c>
@@ -2914,7 +2922,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>122</v>
@@ -2934,7 +2942,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>36951</v>
       </c>
@@ -2960,7 +2968,7 @@
         <v>36959</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
         <v>106</v>
@@ -2980,7 +2988,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>123</v>
@@ -3000,7 +3008,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>36982</v>
       </c>
@@ -3024,7 +3032,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>106</v>
@@ -3044,7 +3052,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>37012</v>
       </c>
@@ -3068,7 +3076,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>37043</v>
       </c>
@@ -3092,7 +3100,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>37073</v>
       </c>
@@ -3116,7 +3124,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>37104</v>
       </c>
@@ -3140,7 +3148,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>37135</v>
       </c>
@@ -3166,7 +3174,7 @@
         <v>37138</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
         <v>81</v>
@@ -3188,7 +3196,7 @@
         <v>37154</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>112</v>
@@ -3210,7 +3218,7 @@
         <v>37162</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="20" t="s">
         <v>129</v>
@@ -3230,7 +3238,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>37165</v>
       </c>
@@ -3254,7 +3262,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>37196</v>
       </c>
@@ -3280,7 +3288,7 @@
         <v>37201</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
         <v>134</v>
@@ -3297,7 +3305,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>37226</v>
       </c>
@@ -3317,7 +3325,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
         <v>88</v>
       </c>
@@ -3339,7 +3347,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>37257</v>
       </c>
@@ -3365,7 +3373,7 @@
         <v>37285</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>106</v>
@@ -3385,7 +3393,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
         <v>135</v>
@@ -3405,7 +3413,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>37288</v>
       </c>
@@ -3431,7 +3439,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="20" t="s">
         <v>138</v>
@@ -3453,7 +3461,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
         <v>139</v>
@@ -3473,7 +3481,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>37316</v>
       </c>
@@ -3499,7 +3507,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>109</v>
@@ -3521,7 +3529,7 @@
         <v>37342</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>106</v>
@@ -3541,7 +3549,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
         <v>140</v>
@@ -3561,7 +3569,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>37347</v>
       </c>
@@ -3587,7 +3595,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>124</v>
@@ -3607,7 +3615,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>37377</v>
       </c>
@@ -3633,7 +3641,7 @@
         <v>37384</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="20" t="s">
         <v>111</v>
@@ -3650,7 +3658,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="49"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>37408</v>
       </c>
@@ -3674,7 +3682,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>106</v>
@@ -3694,7 +3702,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>37438</v>
       </c>
@@ -3714,7 +3722,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>37469</v>
       </c>
@@ -3738,7 +3746,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>37500</v>
       </c>
@@ -3764,7 +3772,7 @@
         <v>37519</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>37530</v>
       </c>
@@ -3790,7 +3798,7 @@
         <v>37551</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>37561</v>
       </c>
@@ -3816,7 +3824,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>109</v>
@@ -3835,7 +3843,7 @@
         <v>37567</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
         <v>147</v>
@@ -3852,7 +3860,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>37591</v>
       </c>
@@ -3872,7 +3880,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>89</v>
       </c>
@@ -3894,7 +3902,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>37622</v>
       </c>
@@ -3918,7 +3926,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>106</v>
@@ -3938,7 +3946,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>82</v>
@@ -3960,7 +3968,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>37653</v>
       </c>
@@ -3986,7 +3994,7 @@
         <v>37663</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>150</v>
@@ -4006,7 +4014,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>37681</v>
       </c>
@@ -4030,7 +4038,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>37712</v>
       </c>
@@ -4054,7 +4062,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>37742</v>
       </c>
@@ -4074,7 +4082,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>37773</v>
       </c>
@@ -4100,7 +4108,7 @@
         <v>37778</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>109</v>
@@ -4122,7 +4130,7 @@
         <v>37799</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>37803</v>
       </c>
@@ -4146,7 +4154,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>37834</v>
       </c>
@@ -4170,7 +4178,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>37865</v>
       </c>
@@ -4196,7 +4204,7 @@
         <v>37882</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>37895</v>
       </c>
@@ -4216,7 +4224,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>37926</v>
       </c>
@@ -4240,7 +4248,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>37956</v>
       </c>
@@ -4266,7 +4274,7 @@
         <v>37965</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23"/>
       <c r="B95" s="20" t="s">
         <v>80</v>
@@ -4286,7 +4294,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>113</v>
@@ -4306,7 +4314,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
         <v>90</v>
       </c>
@@ -4328,7 +4336,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>37987</v>
       </c>
@@ -4352,7 +4360,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>106</v>
@@ -4372,7 +4380,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>38018</v>
       </c>
@@ -4396,7 +4404,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>38047</v>
       </c>
@@ -4422,7 +4430,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>158</v>
@@ -4442,7 +4450,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>38078</v>
       </c>
@@ -4468,7 +4476,7 @@
         <v>38107</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>159</v>
@@ -4488,7 +4496,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>38108</v>
       </c>
@@ -4514,7 +4522,7 @@
         <v>37390</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>162</v>
@@ -4534,7 +4542,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>38139</v>
       </c>
@@ -4560,7 +4568,7 @@
         <v>38163</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>115</v>
@@ -4580,7 +4588,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>38169</v>
       </c>
@@ -4604,7 +4612,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>38200</v>
       </c>
@@ -4628,7 +4636,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <v>38231</v>
       </c>
@@ -4652,7 +4660,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>164</v>
@@ -4672,7 +4680,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <v>38261</v>
       </c>
@@ -4696,7 +4704,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>38292</v>
       </c>
@@ -4722,7 +4730,7 @@
         <v>38299</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>166</v>
@@ -4742,7 +4750,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>38322</v>
       </c>
@@ -4768,7 +4776,7 @@
         <v>38344</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>167</v>
@@ -4788,7 +4796,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
         <v>91</v>
       </c>
@@ -4810,7 +4818,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>38353</v>
       </c>
@@ -4836,7 +4844,7 @@
         <v>38364</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>109</v>
@@ -4858,7 +4866,7 @@
         <v>38378</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>106</v>
@@ -4878,7 +4886,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>169</v>
@@ -4898,7 +4906,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>38384</v>
       </c>
@@ -4924,7 +4932,7 @@
         <v>38394</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>171</v>
@@ -4944,7 +4952,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>38412</v>
       </c>
@@ -4970,7 +4978,7 @@
         <v>38420</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>109</v>
@@ -4992,7 +5000,7 @@
         <v>38422</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20" t="s">
         <v>172</v>
@@ -5012,7 +5020,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <v>38443</v>
       </c>
@@ -5036,7 +5044,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>38473</v>
       </c>
@@ -5060,7 +5068,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>38504</v>
       </c>
@@ -5086,7 +5094,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>109</v>
@@ -5108,7 +5116,7 @@
         <v>38518</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>169</v>
@@ -5128,7 +5136,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>38534</v>
       </c>
@@ -5152,7 +5160,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <v>38565</v>
       </c>
@@ -5176,7 +5184,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>106</v>
@@ -5196,7 +5204,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23"/>
       <c r="B136" s="20" t="s">
         <v>175</v>
@@ -5216,7 +5224,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <v>38596</v>
       </c>
@@ -5240,7 +5248,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>38626</v>
       </c>
@@ -5266,7 +5274,7 @@
         <v>38632</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>109</v>
@@ -5285,7 +5293,7 @@
         <v>38639</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>81</v>
@@ -5304,7 +5312,7 @@
         <v>38664</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>177</v>
@@ -5321,7 +5329,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>38657</v>
       </c>
@@ -5345,7 +5353,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>38687</v>
       </c>
@@ -5371,7 +5379,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>183</v>
@@ -5388,7 +5396,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="48" t="s">
         <v>92</v>
       </c>
@@ -5410,7 +5418,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>38718</v>
       </c>
@@ -5436,7 +5444,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23"/>
       <c r="B147" s="20" t="s">
         <v>106</v>
@@ -5456,7 +5464,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>106</v>
@@ -5476,7 +5484,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>185</v>
@@ -5498,7 +5506,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>186</v>
@@ -5518,7 +5526,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>38749</v>
       </c>
@@ -5542,7 +5550,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>38777</v>
       </c>
@@ -5566,7 +5574,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <v>38808</v>
       </c>
@@ -5592,7 +5600,7 @@
         <v>38814</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>109</v>
@@ -5614,7 +5622,7 @@
         <v>38841</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>109</v>
@@ -5636,7 +5644,7 @@
         <v>38846</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>109</v>
@@ -5658,7 +5666,7 @@
         <v>38852</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>176</v>
@@ -5678,7 +5686,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>38838</v>
       </c>
@@ -5702,7 +5710,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>38869</v>
       </c>
@@ -5728,7 +5736,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>109</v>
@@ -5750,7 +5758,7 @@
         <v>38901</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>191</v>
@@ -5770,7 +5778,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>38899</v>
       </c>
@@ -5796,7 +5804,7 @@
         <v>38926</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>197</v>
@@ -5816,7 +5824,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="49"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <v>38930</v>
       </c>
@@ -5842,7 +5850,7 @@
         <v>38943</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>106</v>
@@ -5862,7 +5870,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>198</v>
@@ -5882,7 +5890,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <v>38961</v>
       </c>
@@ -5908,7 +5916,7 @@
         <v>38987</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>199</v>
@@ -5928,7 +5936,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <v>38991</v>
       </c>
@@ -5954,7 +5962,7 @@
         <v>39020</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>109</v>
@@ -5976,7 +5984,7 @@
         <v>39027</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>200</v>
@@ -5996,7 +6004,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <v>39022</v>
       </c>
@@ -6022,7 +6030,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>109</v>
@@ -6044,7 +6052,7 @@
         <v>39071</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>201</v>
@@ -6064,7 +6072,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>39052</v>
       </c>
@@ -6088,7 +6096,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="48" t="s">
         <v>93</v>
       </c>
@@ -6110,7 +6118,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>39083</v>
       </c>
@@ -6136,7 +6144,7 @@
         <v>39084</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>106</v>
@@ -6156,7 +6164,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>205</v>
@@ -6176,7 +6184,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <v>39114</v>
       </c>
@@ -6202,7 +6210,7 @@
         <v>39125</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>206</v>
@@ -6222,7 +6230,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>39142</v>
       </c>
@@ -6248,7 +6256,7 @@
         <v>39170</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>208</v>
@@ -6268,7 +6276,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="49"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <v>39173</v>
       </c>
@@ -6292,7 +6300,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>39203</v>
       </c>
@@ -6318,7 +6326,7 @@
         <v>39211</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>106</v>
@@ -6338,7 +6346,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>210</v>
@@ -6358,7 +6366,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <v>39234</v>
       </c>
@@ -6382,7 +6390,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>39264</v>
       </c>
@@ -6408,7 +6416,7 @@
         <v>39275</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>106</v>
@@ -6428,7 +6436,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>212</v>
@@ -6448,7 +6456,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <v>39295</v>
       </c>
@@ -6472,7 +6480,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <v>39326</v>
       </c>
@@ -6498,7 +6506,7 @@
         <v>39351</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>214</v>
@@ -6518,7 +6526,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>39356</v>
       </c>
@@ -6544,7 +6552,7 @@
         <v>39380</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23"/>
       <c r="B196" s="20" t="s">
         <v>215</v>
@@ -6561,7 +6569,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <v>39387</v>
       </c>
@@ -6587,7 +6595,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>109</v>
@@ -6609,7 +6617,7 @@
         <v>39429</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>216</v>
@@ -6629,7 +6637,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <v>39417</v>
       </c>
@@ -6653,7 +6661,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="48" t="s">
         <v>103</v>
       </c>
@@ -6675,7 +6683,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <v>39448</v>
       </c>
@@ -6699,7 +6707,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>222</v>
@@ -6719,7 +6727,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>106</v>
@@ -6739,7 +6747,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>106</v>
@@ -6759,7 +6767,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>39479</v>
       </c>
@@ -6783,7 +6791,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <v>39508</v>
       </c>
@@ -6809,7 +6817,7 @@
         <v>39513</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>109</v>
@@ -6831,7 +6839,7 @@
         <v>39521</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>225</v>
@@ -6851,7 +6859,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <v>39539</v>
       </c>
@@ -6875,7 +6883,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>189</v>
@@ -6895,7 +6903,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <v>39569</v>
       </c>
@@ -6919,7 +6927,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <v>39600</v>
       </c>
@@ -6945,7 +6953,7 @@
         <v>39612</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>109</v>
@@ -6967,7 +6975,7 @@
         <v>39626</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>227</v>
@@ -6987,7 +6995,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>39630</v>
       </c>
@@ -7011,7 +7019,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>39661</v>
       </c>
@@ -7035,7 +7043,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>39692</v>
       </c>
@@ -7061,7 +7069,7 @@
         <v>39710</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>109</v>
@@ -7083,7 +7091,7 @@
         <v>39714</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>230</v>
@@ -7103,7 +7111,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <v>39722</v>
       </c>
@@ -7129,7 +7137,7 @@
         <v>39729</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>231</v>
@@ -7149,7 +7157,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <v>39753</v>
       </c>
@@ -7175,7 +7183,7 @@
         <v>39759</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>233</v>
@@ -7195,7 +7203,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <v>39783</v>
       </c>
@@ -7219,7 +7227,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="48" t="s">
         <v>94</v>
       </c>
@@ -7241,7 +7249,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <v>39814</v>
       </c>
@@ -7265,7 +7273,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>235</v>
@@ -7285,7 +7293,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <v>39845</v>
       </c>
@@ -7309,7 +7317,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>109</v>
@@ -7331,7 +7339,7 @@
         <v>39895</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>39873</v>
       </c>
@@ -7355,7 +7363,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>109</v>
@@ -7377,7 +7385,7 @@
         <v>39915</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>237</v>
@@ -7397,7 +7405,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <v>39904</v>
       </c>
@@ -7421,7 +7429,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <v>39934</v>
       </c>
@@ -7445,7 +7453,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <v>39965</v>
       </c>
@@ -7471,7 +7479,7 @@
         <v>39972</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>240</v>
@@ -7491,7 +7499,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <v>39995</v>
       </c>
@@ -7515,7 +7523,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <v>40026</v>
       </c>
@@ -7539,7 +7547,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <v>40057</v>
       </c>
@@ -7563,7 +7571,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>109</v>
@@ -7585,7 +7593,7 @@
         <v>40072</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>243</v>
@@ -7605,7 +7613,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="52"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <v>40087</v>
       </c>
@@ -7629,7 +7637,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <v>40118</v>
       </c>
@@ -7653,7 +7661,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <v>40148</v>
       </c>
@@ -7677,7 +7685,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="48" t="s">
         <v>95</v>
       </c>
@@ -7699,7 +7707,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <v>40179</v>
       </c>
@@ -7723,7 +7731,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>250</v>
@@ -7743,7 +7751,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <v>40210</v>
       </c>
@@ -7767,7 +7775,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <v>40238</v>
       </c>
@@ -7791,7 +7799,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>40269</v>
       </c>
@@ -7815,7 +7823,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <v>40299</v>
       </c>
@@ -7839,7 +7847,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>40330</v>
       </c>
@@ -7865,7 +7873,7 @@
         <v>40357</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>255</v>
@@ -7885,7 +7893,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <v>40360</v>
       </c>
@@ -7909,7 +7917,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <v>40391</v>
       </c>
@@ -7933,7 +7941,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <v>40422</v>
       </c>
@@ -7959,7 +7967,7 @@
         <v>40428</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>106</v>
@@ -7979,7 +7987,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>258</v>
@@ -7999,7 +8007,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <v>40452</v>
       </c>
@@ -8025,7 +8033,7 @@
         <v>40490</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>259</v>
@@ -8045,7 +8053,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <v>40483</v>
       </c>
@@ -8071,7 +8079,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>260</v>
@@ -8091,7 +8099,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>40513</v>
       </c>
@@ -8115,7 +8123,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="48" t="s">
         <v>96</v>
       </c>
@@ -8137,7 +8145,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>40544</v>
       </c>
@@ -8161,7 +8169,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>174</v>
@@ -8181,7 +8189,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <v>40575</v>
       </c>
@@ -8205,7 +8213,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>40603</v>
       </c>
@@ -8229,7 +8237,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <v>40634</v>
       </c>
@@ -8253,7 +8261,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>40664</v>
       </c>
@@ -8279,7 +8287,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>109</v>
@@ -8301,7 +8309,7 @@
         <v>40680</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>268</v>
@@ -8321,7 +8329,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <v>40695</v>
       </c>
@@ -8347,7 +8355,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>139</v>
@@ -8367,7 +8375,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <v>40725</v>
       </c>
@@ -8393,7 +8401,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>120</v>
@@ -8413,7 +8421,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <v>40756</v>
       </c>
@@ -8437,7 +8445,7 @@
         <v>40751</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>269</v>
@@ -8457,7 +8465,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <v>40787</v>
       </c>
@@ -8481,7 +8489,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>270</v>
@@ -8501,7 +8509,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <v>40817</v>
       </c>
@@ -8527,7 +8535,7 @@
         <v>40844</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>109</v>
@@ -8549,7 +8557,7 @@
         <v>40870</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>182</v>
@@ -8571,7 +8579,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>269</v>
@@ -8591,7 +8599,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <v>40848</v>
       </c>
@@ -8615,7 +8623,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <v>40878</v>
       </c>
@@ -8639,7 +8647,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="48" t="s">
         <v>97</v>
       </c>
@@ -8661,7 +8669,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <v>40909</v>
       </c>
@@ -8685,7 +8693,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <v>40940</v>
       </c>
@@ -8709,7 +8717,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <v>40969</v>
       </c>
@@ -8735,7 +8743,7 @@
         <v>40975</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>163</v>
@@ -8755,7 +8763,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <v>41000</v>
       </c>
@@ -8781,7 +8789,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>109</v>
@@ -8803,7 +8811,7 @@
         <v>41022</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>280</v>
@@ -8823,7 +8831,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <v>41030</v>
       </c>
@@ -8849,7 +8857,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23"/>
       <c r="B297" s="20" t="s">
         <v>138</v>
@@ -8868,7 +8876,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>108</v>
@@ -8885,7 +8893,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <v>41061</v>
       </c>
@@ -8909,7 +8917,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23">
         <v>41091</v>
       </c>
@@ -8935,7 +8943,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>282</v>
@@ -8955,7 +8963,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23">
         <v>41122</v>
       </c>
@@ -8979,7 +8987,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23">
         <v>41153</v>
       </c>
@@ -9003,7 +9011,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23"/>
       <c r="B304" s="20" t="s">
         <v>106</v>
@@ -9023,7 +9031,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>123</v>
@@ -9043,7 +9051,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23">
         <v>41183</v>
       </c>
@@ -9067,7 +9075,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <v>41214</v>
       </c>
@@ -9091,7 +9099,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23">
         <v>41244</v>
       </c>
@@ -9117,7 +9125,7 @@
         <v>41261</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
         <v>109</v>
@@ -9136,7 +9144,7 @@
         <v>41254</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>235</v>
@@ -9153,7 +9161,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="48" t="s">
         <v>98</v>
       </c>
@@ -9175,7 +9183,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <v>41275</v>
       </c>
@@ -9199,7 +9207,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <v>41306</v>
       </c>
@@ -9225,7 +9233,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23"/>
       <c r="B314" s="20" t="s">
         <v>291</v>
@@ -9245,7 +9253,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23">
         <v>41334</v>
       </c>
@@ -9271,7 +9279,7 @@
         <v>41340</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>176</v>
@@ -9291,7 +9299,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <v>41365</v>
       </c>
@@ -9317,7 +9325,7 @@
         <v>41376</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>80</v>
@@ -9339,7 +9347,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
         <v>128</v>
@@ -9359,7 +9367,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <v>41395</v>
       </c>
@@ -9385,7 +9393,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>292</v>
@@ -9405,7 +9413,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23">
         <v>41426</v>
       </c>
@@ -9431,7 +9439,7 @@
         <v>41430</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23"/>
       <c r="B323" s="20" t="s">
         <v>293</v>
@@ -9451,7 +9459,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <v>41456</v>
       </c>
@@ -9475,7 +9483,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <v>41487</v>
       </c>
@@ -9501,7 +9509,7 @@
         <v>41487</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>298</v>
@@ -9521,7 +9529,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="49"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <v>41518</v>
       </c>
@@ -9547,7 +9555,7 @@
         <v>41521</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>106</v>
@@ -9567,7 +9575,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>106</v>
@@ -9587,7 +9595,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23"/>
       <c r="B330" s="20" t="s">
         <v>299</v>
@@ -9607,7 +9615,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <v>41548</v>
       </c>
@@ -9631,7 +9639,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>300</v>
@@ -9651,7 +9659,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <v>41579</v>
       </c>
@@ -9677,7 +9685,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>126</v>
@@ -9697,7 +9705,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <v>41609</v>
       </c>
@@ -9721,7 +9729,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="48" t="s">
         <v>99</v>
       </c>
@@ -9743,7 +9751,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23">
         <v>41640</v>
       </c>
@@ -9767,7 +9775,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <v>41671</v>
       </c>
@@ -9791,7 +9799,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <v>41699</v>
       </c>
@@ -9815,7 +9823,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23">
         <v>41730</v>
       </c>
@@ -9841,7 +9849,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23"/>
       <c r="B341" s="20" t="s">
         <v>303</v>
@@ -9861,7 +9869,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23">
         <v>41760</v>
       </c>
@@ -9885,7 +9893,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
         <v>109</v>
@@ -9907,7 +9915,7 @@
         <v>41786</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>106</v>
@@ -9927,7 +9935,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
         <v>304</v>
@@ -9947,7 +9955,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <v>41791</v>
       </c>
@@ -9973,7 +9981,7 @@
         <v>41799</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>109</v>
@@ -9995,7 +10003,7 @@
         <v>41808</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>109</v>
@@ -10017,7 +10025,7 @@
         <v>41814</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>115</v>
@@ -10037,7 +10045,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <v>41821</v>
       </c>
@@ -10061,7 +10069,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <v>41852</v>
       </c>
@@ -10087,7 +10095,7 @@
         <v>41855</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>313</v>
@@ -10107,7 +10115,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <v>41883</v>
       </c>
@@ -10131,7 +10139,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>109</v>
@@ -10153,7 +10161,7 @@
         <v>41907</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>107</v>
@@ -10173,7 +10181,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <v>41913</v>
       </c>
@@ -10199,7 +10207,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>314</v>
@@ -10219,7 +10227,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23">
         <v>41944</v>
       </c>
@@ -10245,7 +10253,7 @@
         <v>41949</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>303</v>
@@ -10265,7 +10273,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
         <v>41974</v>
       </c>
@@ -10291,7 +10299,7 @@
         <v>42002</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23"/>
       <c r="B361" s="20" t="s">
         <v>315</v>
@@ -10311,7 +10319,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="48" t="s">
         <v>100</v>
       </c>
@@ -10333,7 +10341,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <v>42005</v>
       </c>
@@ -10357,7 +10365,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>80</v>
@@ -10379,7 +10387,7 @@
         <v>42039</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23"/>
       <c r="B365" s="20" t="s">
         <v>303</v>
@@ -10399,7 +10407,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <v>42036</v>
       </c>
@@ -10423,7 +10431,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
         <v>42064</v>
       </c>
@@ -10447,7 +10455,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>320</v>
@@ -10467,7 +10475,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23">
         <v>42095</v>
       </c>
@@ -10493,7 +10501,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>151</v>
@@ -10513,7 +10521,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23">
         <v>42125</v>
       </c>
@@ -10539,7 +10547,7 @@
         <v>42139</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23">
         <v>42156</v>
       </c>
@@ -10565,7 +10573,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>321</v>
@@ -10585,7 +10593,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23">
         <v>42186</v>
       </c>
@@ -10609,7 +10617,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <v>42217</v>
       </c>
@@ -10635,7 +10643,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>322</v>
@@ -10655,7 +10663,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23">
         <v>42248</v>
       </c>
@@ -10681,7 +10689,7 @@
         <v>42262</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>323</v>
@@ -10703,7 +10711,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <v>42278</v>
       </c>
@@ -10729,7 +10737,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23">
         <v>42309</v>
       </c>
@@ -10753,7 +10761,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>324</v>
@@ -10773,7 +10781,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23">
         <v>42339</v>
       </c>
@@ -10797,7 +10805,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="48" t="s">
         <v>101</v>
       </c>
@@ -10819,7 +10827,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23">
         <v>42370</v>
       </c>
@@ -10843,7 +10851,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23">
         <v>42401</v>
       </c>
@@ -10869,7 +10877,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23">
         <v>42430</v>
       </c>
@@ -10889,7 +10897,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23">
         <v>42461</v>
       </c>
@@ -10915,7 +10923,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23"/>
       <c r="B388" s="20" t="s">
         <v>109</v>
@@ -10937,7 +10945,7 @@
         <v>42488</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23">
         <v>42491</v>
       </c>
@@ -10957,7 +10965,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23">
         <v>42522</v>
       </c>
@@ -10983,7 +10991,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23"/>
       <c r="B391" s="20" t="s">
         <v>336</v>
@@ -11005,7 +11013,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23">
         <v>42552</v>
       </c>
@@ -11025,7 +11033,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23">
         <v>42583</v>
       </c>
@@ -11049,7 +11057,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23">
         <v>42614</v>
       </c>
@@ -11075,7 +11083,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23"/>
       <c r="B395" s="20" t="s">
         <v>339</v>
@@ -11094,7 +11102,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23">
         <v>42644</v>
       </c>
@@ -11114,7 +11122,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23">
         <v>42675</v>
       </c>
@@ -11140,7 +11148,7 @@
         <v>42671</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23">
         <v>42705</v>
       </c>
@@ -11160,7 +11168,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="48" t="s">
         <v>102</v>
       </c>
@@ -11182,7 +11190,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23">
         <v>42736</v>
       </c>
@@ -11206,7 +11214,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>138</v>
@@ -11225,7 +11233,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23">
         <v>42767</v>
       </c>
@@ -11245,7 +11253,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23">
         <v>42795</v>
       </c>
@@ -11269,7 +11277,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23">
         <v>42826</v>
       </c>
@@ -11289,7 +11297,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <v>42856</v>
       </c>
@@ -11315,7 +11323,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23"/>
       <c r="B406" s="20" t="s">
         <v>109</v>
@@ -11334,7 +11342,7 @@
         <v>42853</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>109</v>
@@ -11353,7 +11361,7 @@
         <v>42865</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23"/>
       <c r="B408" s="20" t="s">
         <v>109</v>
@@ -11372,7 +11380,7 @@
         <v>42870</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23">
         <v>42887</v>
       </c>
@@ -11392,7 +11400,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23">
         <v>42917</v>
       </c>
@@ -11412,7 +11420,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23">
         <v>42948</v>
       </c>
@@ -11436,7 +11444,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23">
         <v>42979</v>
       </c>
@@ -11456,7 +11464,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23">
         <v>43009</v>
       </c>
@@ -11482,7 +11490,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23"/>
       <c r="B414" s="20" t="s">
         <v>109</v>
@@ -11504,7 +11512,7 @@
         <v>43035</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23">
         <v>43040</v>
       </c>
@@ -11524,7 +11532,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23">
         <v>43070</v>
       </c>
@@ -11544,7 +11552,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="48" t="s">
         <v>48</v>
       </c>
@@ -11566,7 +11574,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>43101</v>
       </c>
@@ -11586,7 +11594,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>43132</v>
       </c>
@@ -11608,7 +11616,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>82</v>
@@ -11632,7 +11640,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>43160</v>
       </c>
@@ -11652,7 +11660,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="41">
         <v>43191</v>
       </c>
@@ -11678,7 +11686,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>43221</v>
       </c>
@@ -11704,7 +11712,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>43252</v>
       </c>
@@ -11730,7 +11738,7 @@
         <v>43106</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>137</v>
@@ -11752,7 +11760,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>43282</v>
       </c>
@@ -11778,7 +11786,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>43313</v>
       </c>
@@ -11804,7 +11812,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>43344</v>
       </c>
@@ -11830,7 +11838,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>43374</v>
       </c>
@@ -11856,7 +11864,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>43405</v>
       </c>
@@ -11876,7 +11884,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>43435</v>
       </c>
@@ -11896,7 +11904,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23" t="s">
         <v>58</v>
       </c>
@@ -11914,7 +11922,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>43466</v>
       </c>
@@ -11934,7 +11942,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>43497</v>
       </c>
@@ -11958,7 +11966,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>43525</v>
       </c>
@@ -11984,7 +11992,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>336</v>
@@ -12006,7 +12014,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>109</v>
@@ -12028,7 +12036,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>43556</v>
       </c>
@@ -12048,7 +12056,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>43586</v>
       </c>
@@ -12074,7 +12082,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>43617</v>
       </c>
@@ -12100,7 +12108,7 @@
         <v>43561</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>43647</v>
       </c>
@@ -12126,7 +12134,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>43678</v>
       </c>
@@ -12146,7 +12154,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>43709</v>
       </c>
@@ -12170,7 +12178,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>82</v>
@@ -12192,7 +12200,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>82</v>
@@ -12214,7 +12222,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>43739</v>
       </c>
@@ -12234,7 +12242,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>43770</v>
       </c>
@@ -12254,7 +12262,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>43800</v>
       </c>
@@ -12274,7 +12282,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="48" t="s">
         <v>68</v>
       </c>
@@ -12292,7 +12300,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>43831</v>
       </c>
@@ -12316,7 +12324,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>43862</v>
       </c>
@@ -12336,7 +12344,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>43891</v>
       </c>
@@ -12356,7 +12364,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>43922</v>
       </c>
@@ -12376,7 +12384,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>43952</v>
       </c>
@@ -12396,7 +12404,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>43983</v>
       </c>
@@ -12416,7 +12424,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>44013</v>
       </c>
@@ -12440,7 +12448,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20" t="s">
         <v>109</v>
@@ -12462,7 +12470,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>44044</v>
       </c>
@@ -12482,7 +12490,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>44075</v>
       </c>
@@ -12502,7 +12510,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>44105</v>
       </c>
@@ -12522,7 +12530,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>44136</v>
       </c>
@@ -12542,7 +12550,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>44166</v>
       </c>
@@ -12566,7 +12574,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="48" t="s">
         <v>72</v>
       </c>
@@ -12584,7 +12592,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>44197</v>
       </c>
@@ -12604,7 +12612,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>44228</v>
       </c>
@@ -12624,7 +12632,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>44256</v>
       </c>
@@ -12644,7 +12652,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>44287</v>
       </c>
@@ -12664,7 +12672,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>44317</v>
       </c>
@@ -12684,7 +12692,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>44348</v>
       </c>
@@ -12704,7 +12712,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="49"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>44378</v>
       </c>
@@ -12730,7 +12738,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>44409</v>
       </c>
@@ -12750,7 +12758,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>44440</v>
       </c>
@@ -12774,7 +12782,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>44470</v>
       </c>
@@ -12794,7 +12802,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>44501</v>
       </c>
@@ -12816,7 +12824,7 @@
         <v>44450</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>82</v>
@@ -12838,7 +12846,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>137</v>
@@ -12862,7 +12870,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>44531</v>
       </c>
@@ -12882,7 +12890,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="23" t="s">
         <v>77</v>
       </c>
@@ -12900,7 +12908,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>44562</v>
       </c>
@@ -12920,7 +12928,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>44593</v>
       </c>
@@ -12940,7 +12948,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>44621</v>
       </c>
@@ -12964,7 +12972,7 @@
         <v>44631</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>44652</v>
       </c>
@@ -12984,7 +12992,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>44682</v>
       </c>
@@ -13004,7 +13012,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>44713</v>
       </c>
@@ -13030,7 +13038,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>44743</v>
       </c>
@@ -13056,7 +13064,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>44774</v>
       </c>
@@ -13076,7 +13084,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>44805</v>
       </c>
@@ -13100,7 +13108,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>302</v>
@@ -13120,7 +13128,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="49"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>44835</v>
       </c>
@@ -13140,7 +13148,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>44866</v>
       </c>
@@ -13164,7 +13172,7 @@
         <v>44887</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>81</v>
@@ -13186,7 +13194,7 @@
         <v>44876</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>82</v>
@@ -13208,7 +13216,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>44896</v>
       </c>
@@ -13232,7 +13240,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>106</v>
@@ -13252,7 +13260,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>82</v>
@@ -13274,7 +13282,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="48" t="s">
         <v>84</v>
       </c>
@@ -13292,7 +13300,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>44927</v>
       </c>
@@ -13316,7 +13324,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>44958</v>
       </c>
@@ -13336,7 +13344,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>44986</v>
       </c>
@@ -13356,7 +13364,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>45017</v>
       </c>
@@ -13380,7 +13388,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>80</v>
@@ -13402,7 +13410,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>45047</v>
       </c>
@@ -13428,7 +13436,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>351</v>
@@ -13450,7 +13458,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>45078</v>
       </c>
@@ -13476,15 +13484,19 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>45108</v>
       </c>
-      <c r="B505" s="20"/>
+      <c r="B505" s="20" t="s">
+        <v>356</v>
+      </c>
       <c r="C505" s="13">
         <v>1.25</v>
       </c>
-      <c r="D505" s="39"/>
+      <c r="D505" s="39">
+        <v>1</v>
+      </c>
       <c r="E505" s="9"/>
       <c r="F505" s="20"/>
       <c r="G505" s="13">
@@ -13494,41 +13506,39 @@
       <c r="H505" s="39"/>
       <c r="I505" s="9"/>
       <c r="J505" s="11"/>
-      <c r="K505" s="20"/>
-    </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A506" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B506" s="20"/>
-      <c r="C506" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D506" s="39"/>
+      <c r="K505" s="49">
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A506" s="40"/>
+      <c r="B506" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="C506" s="13"/>
+      <c r="D506" s="39">
+        <v>8.7000000000000022E-2</v>
+      </c>
       <c r="E506" s="9"/>
       <c r="F506" s="20"/>
-      <c r="G506" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G506" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H506" s="39"/>
       <c r="I506" s="9"/>
       <c r="J506" s="11"/>
-      <c r="K506" s="20"/>
-    </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K506" s="49"/>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B507" s="20" t="s">
-        <v>81</v>
-      </c>
+        <v>45139</v>
+      </c>
+      <c r="B507" s="20"/>
       <c r="C507" s="13">
         <v>1.25</v>
       </c>
-      <c r="D507" s="39">
-        <v>1</v>
-      </c>
+      <c r="D507" s="39"/>
       <c r="E507" s="9"/>
       <c r="F507" s="20"/>
       <c r="G507" s="13">
@@ -13538,16 +13548,14 @@
       <c r="H507" s="39"/>
       <c r="I507" s="9"/>
       <c r="J507" s="11"/>
-      <c r="K507" s="49">
-        <v>45189</v>
-      </c>
-    </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K507" s="20"/>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B508" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C508" s="13">
         <v>1.25</v>
@@ -13565,21 +13573,21 @@
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
       <c r="K508" s="49">
-        <v>45219</v>
-      </c>
-    </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B509" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C509" s="13">
         <v>1.25</v>
       </c>
       <c r="D509" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E509" s="9"/>
       <c r="F509" s="20"/>
@@ -13590,31 +13598,45 @@
       <c r="H509" s="39"/>
       <c r="I509" s="9"/>
       <c r="J509" s="11"/>
-      <c r="K509" s="20" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A510" s="40"/>
-      <c r="B510" s="20"/>
-      <c r="C510" s="13"/>
-      <c r="D510" s="39"/>
+      <c r="K509" s="49">
+        <v>45219</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A510" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B510" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C510" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D510" s="39">
+        <v>2</v>
+      </c>
       <c r="E510" s="9"/>
       <c r="F510" s="20"/>
-      <c r="G510" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G510" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H510" s="39"/>
       <c r="I510" s="9"/>
       <c r="J510" s="11"/>
-      <c r="K510" s="20"/>
-    </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K510" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
-      <c r="B511" s="20"/>
+      <c r="B511" s="20" t="s">
+        <v>356</v>
+      </c>
       <c r="C511" s="13"/>
-      <c r="D511" s="39"/>
+      <c r="D511" s="39">
+        <v>1</v>
+      </c>
       <c r="E511" s="9"/>
       <c r="F511" s="20"/>
       <c r="G511" s="13" t="str">
@@ -13624,26 +13646,34 @@
       <c r="H511" s="39"/>
       <c r="I511" s="9"/>
       <c r="J511" s="11"/>
-      <c r="K511" s="20"/>
-    </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A512" s="40"/>
+      <c r="K511" s="49">
+        <v>45254</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A512" s="40">
+        <v>45261</v>
+      </c>
       <c r="B512" s="20"/>
-      <c r="C512" s="13"/>
+      <c r="C512" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D512" s="39"/>
       <c r="E512" s="9"/>
       <c r="F512" s="20"/>
-      <c r="G512" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G512" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H512" s="39"/>
       <c r="I512" s="9"/>
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A513" s="40"/>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A513" s="48" t="s">
+        <v>355</v>
+      </c>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
       <c r="D513" s="39"/>
@@ -13658,8 +13688,10 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A514" s="40"/>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A514" s="40">
+        <v>45292</v>
+      </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
       <c r="D514" s="39"/>
@@ -13674,8 +13706,10 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A515" s="40"/>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A515" s="40">
+        <v>45323</v>
+      </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
       <c r="D515" s="39"/>
@@ -13690,8 +13724,10 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A516" s="40"/>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A516" s="40">
+        <v>45352</v>
+      </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
       <c r="D516" s="39"/>
@@ -13706,8 +13742,10 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A517" s="40"/>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A517" s="40">
+        <v>45383</v>
+      </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
       <c r="D517" s="39"/>
@@ -13722,8 +13760,10 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A518" s="40"/>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A518" s="40">
+        <v>45413</v>
+      </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
       <c r="D518" s="39"/>
@@ -13738,8 +13778,10 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A519" s="40"/>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A519" s="40">
+        <v>45444</v>
+      </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
       <c r="D519" s="39"/>
@@ -13754,8 +13796,10 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A520" s="40"/>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A520" s="40">
+        <v>45474</v>
+      </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
       <c r="D520" s="39"/>
@@ -13770,8 +13814,10 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A521" s="40"/>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A521" s="40">
+        <v>45505</v>
+      </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
       <c r="D521" s="39"/>
@@ -13786,8 +13832,10 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A522" s="40"/>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A522" s="40">
+        <v>45536</v>
+      </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
       <c r="D522" s="39"/>
@@ -13802,7 +13850,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -13818,7 +13866,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -13834,7 +13882,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -13850,7 +13898,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -13866,7 +13914,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -13882,7 +13930,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -13898,7 +13946,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -13914,7 +13962,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -13930,7 +13978,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -13946,7 +13994,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -13962,7 +14010,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -13978,7 +14026,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -13994,7 +14042,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -14010,7 +14058,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -14026,7 +14074,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -14042,7 +14090,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -14058,7 +14106,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -14074,21 +14122,69 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A540" s="41"/>
-      <c r="B540" s="15"/>
-      <c r="C540" s="42"/>
-      <c r="D540" s="43"/>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A540" s="40"/>
+      <c r="B540" s="20"/>
+      <c r="C540" s="13"/>
+      <c r="D540" s="39"/>
       <c r="E540" s="9"/>
-      <c r="F540" s="15"/>
-      <c r="G540" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H540" s="43"/>
+      <c r="F540" s="20"/>
+      <c r="G540" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H540" s="39"/>
       <c r="I540" s="9"/>
-      <c r="J540" s="12"/>
-      <c r="K540" s="15"/>
+      <c r="J540" s="11"/>
+      <c r="K540" s="20"/>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A541" s="40"/>
+      <c r="B541" s="20"/>
+      <c r="C541" s="13"/>
+      <c r="D541" s="39"/>
+      <c r="E541" s="9"/>
+      <c r="F541" s="20"/>
+      <c r="G541" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H541" s="39"/>
+      <c r="I541" s="9"/>
+      <c r="J541" s="11"/>
+      <c r="K541" s="20"/>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A542" s="40"/>
+      <c r="B542" s="20"/>
+      <c r="C542" s="13"/>
+      <c r="D542" s="39"/>
+      <c r="E542" s="9"/>
+      <c r="F542" s="20"/>
+      <c r="G542" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H542" s="39"/>
+      <c r="I542" s="9"/>
+      <c r="J542" s="11"/>
+      <c r="K542" s="20"/>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A543" s="41"/>
+      <c r="B543" s="15"/>
+      <c r="C543" s="42"/>
+      <c r="D543" s="43"/>
+      <c r="E543" s="9"/>
+      <c r="F543" s="15"/>
+      <c r="G543" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H543" s="43"/>
+      <c r="I543" s="9"/>
+      <c r="J543" s="12"/>
+      <c r="K543" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14105,10 +14201,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14131,28 +14227,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -14165,7 +14261,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14194,7 +14290,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>62.725999999999999</v>
       </c>
@@ -14208,11 +14304,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="11">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.5000000000000008E-2</v>
+        <v>8.7000000000000022E-2</v>
       </c>
       <c r="J3" s="47">
         <v>29</v>
@@ -14226,17 +14322,17 @@
         <v>8.2999999999999741E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>352</v>
       </c>
@@ -14260,10 +14356,10 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>525.053</v>
+        <v>525.46600000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -14291,7 +14387,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14317,7 +14413,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14343,7 +14439,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14369,7 +14465,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14395,7 +14491,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14421,7 +14517,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14447,7 +14543,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14473,7 +14569,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14493,7 +14589,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14513,7 +14609,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14533,7 +14629,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14554,7 +14650,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14575,7 +14671,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14596,7 +14692,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14617,7 +14713,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14638,7 +14734,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -14659,7 +14755,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14680,7 +14776,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14701,7 +14797,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14722,7 +14818,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14743,7 +14839,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14764,7 +14860,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14785,7 +14881,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14806,7 +14902,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14827,7 +14923,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14848,7 +14944,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14869,7 +14965,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14890,7 +14986,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14911,7 +15007,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14932,7 +15028,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14953,7 +15049,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14962,7 +15058,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14971,7 +15067,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14980,7 +15076,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14989,7 +15085,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14998,7 +15094,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15007,7 +15103,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15016,7 +15112,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15025,7 +15121,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15034,7 +15130,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15043,7 +15139,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15052,7 +15148,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15061,7 +15157,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15070,7 +15166,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15079,7 +15175,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15088,7 +15184,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15097,7 +15193,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15106,7 +15202,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15115,7 +15211,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15124,7 +15220,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15133,7 +15229,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15142,7 +15238,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15151,7 +15247,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15160,7 +15256,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15169,7 +15265,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15178,7 +15274,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15187,7 +15283,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15196,7 +15292,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15205,7 +15301,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15214,7 +15310,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CTO/OLEGARIO TEOFISTA.xlsx
+++ b/REGULAR/CTO/OLEGARIO TEOFISTA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="359">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1127,6 +1127,9 @@
   </si>
   <si>
     <t>UT(0-0-42)</t>
+  </si>
+  <si>
+    <t>UT(0-1-58)</t>
   </si>
 </sst>
 </file>
@@ -1827,8 +1830,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K543" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K543"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K544" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K544"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2157,12 +2160,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K543"/>
+  <dimension ref="A2:K544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <pane ySplit="4065" topLeftCell="A495" activePane="bottomLeft"/>
       <selection activeCell="E16" sqref="E16"/>
-      <selection pane="bottomLeft" activeCell="E506" sqref="E506"/>
+      <selection pane="bottomLeft" activeCell="E508" sqref="E508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,7 +2332,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>176.59100000000001</v>
+        <v>176.024</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -13328,11 +13331,15 @@
       <c r="A498" s="40">
         <v>44958</v>
       </c>
-      <c r="B498" s="20"/>
+      <c r="B498" s="20" t="s">
+        <v>313</v>
+      </c>
       <c r="C498" s="13">
         <v>1.25</v>
       </c>
-      <c r="D498" s="39"/>
+      <c r="D498" s="39">
+        <v>7.9000000000000015E-2</v>
+      </c>
       <c r="E498" s="9"/>
       <c r="F498" s="20"/>
       <c r="G498" s="13">
@@ -13348,11 +13355,15 @@
       <c r="A499" s="40">
         <v>44986</v>
       </c>
-      <c r="B499" s="20"/>
+      <c r="B499" s="20" t="s">
+        <v>166</v>
+      </c>
       <c r="C499" s="13">
         <v>1.25</v>
       </c>
-      <c r="D499" s="39"/>
+      <c r="D499" s="39">
+        <v>0.24199999999999999</v>
+      </c>
       <c r="E499" s="9"/>
       <c r="F499" s="20"/>
       <c r="G499" s="13">
@@ -13458,7 +13469,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>45078</v>
       </c>
@@ -13484,85 +13495,81 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A505" s="40">
-        <v>45108</v>
-      </c>
+    <row r="505" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="C505" s="13">
-        <v>1.25</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C505" s="13"/>
       <c r="D505" s="39">
-        <v>1</v>
+        <v>0.246</v>
       </c>
       <c r="E505" s="9"/>
       <c r="F505" s="20"/>
-      <c r="G505" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G505" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H505" s="39"/>
       <c r="I505" s="9"/>
       <c r="J505" s="11"/>
-      <c r="K505" s="49">
-        <v>45118</v>
-      </c>
+      <c r="K505" s="49"/>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A506" s="40"/>
+      <c r="A506" s="40">
+        <v>45108</v>
+      </c>
       <c r="B506" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="C506" s="13"/>
+        <v>356</v>
+      </c>
+      <c r="C506" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D506" s="39">
-        <v>8.7000000000000022E-2</v>
+        <v>1</v>
       </c>
       <c r="E506" s="9"/>
       <c r="F506" s="20"/>
-      <c r="G506" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G506" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H506" s="39"/>
       <c r="I506" s="9"/>
       <c r="J506" s="11"/>
-      <c r="K506" s="49"/>
+      <c r="K506" s="49">
+        <v>45118</v>
+      </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A507" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B507" s="20"/>
-      <c r="C507" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D507" s="39"/>
+      <c r="A507" s="40"/>
+      <c r="B507" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="C507" s="13"/>
+      <c r="D507" s="39">
+        <v>8.7000000000000022E-2</v>
+      </c>
       <c r="E507" s="9"/>
       <c r="F507" s="20"/>
-      <c r="G507" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G507" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H507" s="39"/>
       <c r="I507" s="9"/>
       <c r="J507" s="11"/>
-      <c r="K507" s="20"/>
+      <c r="K507" s="49"/>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B508" s="20" t="s">
-        <v>81</v>
-      </c>
+        <v>45139</v>
+      </c>
+      <c r="B508" s="20"/>
       <c r="C508" s="13">
         <v>1.25</v>
       </c>
-      <c r="D508" s="39">
-        <v>1</v>
-      </c>
+      <c r="D508" s="39"/>
       <c r="E508" s="9"/>
       <c r="F508" s="20"/>
       <c r="G508" s="13">
@@ -13572,16 +13579,14 @@
       <c r="H508" s="39"/>
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
-      <c r="K508" s="49">
-        <v>45189</v>
-      </c>
+      <c r="K508" s="20"/>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B509" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C509" s="13">
         <v>1.25</v>
@@ -13599,21 +13604,21 @@
       <c r="I509" s="9"/>
       <c r="J509" s="11"/>
       <c r="K509" s="49">
-        <v>45219</v>
+        <v>45189</v>
       </c>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B510" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C510" s="13">
         <v>1.25</v>
       </c>
       <c r="D510" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E510" s="9"/>
       <c r="F510" s="20"/>
@@ -13624,64 +13629,72 @@
       <c r="H510" s="39"/>
       <c r="I510" s="9"/>
       <c r="J510" s="11"/>
-      <c r="K510" s="20" t="s">
-        <v>354</v>
+      <c r="K510" s="49">
+        <v>45219</v>
       </c>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A511" s="40"/>
+      <c r="A511" s="40">
+        <v>45231</v>
+      </c>
       <c r="B511" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="C511" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="C511" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D511" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E511" s="9"/>
       <c r="F511" s="20"/>
-      <c r="G511" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G511" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H511" s="39"/>
       <c r="I511" s="9"/>
       <c r="J511" s="11"/>
-      <c r="K511" s="49">
-        <v>45254</v>
+      <c r="K511" s="20" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A512" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B512" s="20"/>
-      <c r="C512" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D512" s="39"/>
+      <c r="A512" s="40"/>
+      <c r="B512" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="C512" s="13"/>
+      <c r="D512" s="39">
+        <v>1</v>
+      </c>
       <c r="E512" s="9"/>
       <c r="F512" s="20"/>
-      <c r="G512" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G512" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H512" s="39"/>
       <c r="I512" s="9"/>
       <c r="J512" s="11"/>
-      <c r="K512" s="20"/>
+      <c r="K512" s="49">
+        <v>45254</v>
+      </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A513" s="48" t="s">
-        <v>355</v>
+      <c r="A513" s="40">
+        <v>45261</v>
       </c>
       <c r="B513" s="20"/>
-      <c r="C513" s="13"/>
+      <c r="C513" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D513" s="39"/>
       <c r="E513" s="9"/>
       <c r="F513" s="20"/>
-      <c r="G513" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G513" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H513" s="39"/>
       <c r="I513" s="9"/>
@@ -13689,8 +13702,8 @@
       <c r="K513" s="20"/>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A514" s="40">
-        <v>45292</v>
+      <c r="A514" s="48" t="s">
+        <v>355</v>
       </c>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -13708,7 +13721,7 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -13726,7 +13739,7 @@
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -13744,7 +13757,7 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -13762,7 +13775,7 @@
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -13780,7 +13793,7 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -13798,7 +13811,7 @@
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -13816,7 +13829,7 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -13834,7 +13847,7 @@
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -13851,7 +13864,9 @@
       <c r="K522" s="20"/>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A523" s="40"/>
+      <c r="A523" s="40">
+        <v>45536</v>
+      </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
       <c r="D523" s="39"/>
@@ -14171,20 +14186,36 @@
       <c r="K542" s="20"/>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A543" s="41"/>
-      <c r="B543" s="15"/>
-      <c r="C543" s="42"/>
-      <c r="D543" s="43"/>
+      <c r="A543" s="40"/>
+      <c r="B543" s="20"/>
+      <c r="C543" s="13"/>
+      <c r="D543" s="39"/>
       <c r="E543" s="9"/>
-      <c r="F543" s="15"/>
-      <c r="G543" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H543" s="43"/>
+      <c r="F543" s="20"/>
+      <c r="G543" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H543" s="39"/>
       <c r="I543" s="9"/>
-      <c r="J543" s="12"/>
-      <c r="K543" s="15"/>
+      <c r="J543" s="11"/>
+      <c r="K543" s="20"/>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A544" s="41"/>
+      <c r="B544" s="15"/>
+      <c r="C544" s="42"/>
+      <c r="D544" s="43"/>
+      <c r="E544" s="9"/>
+      <c r="F544" s="15"/>
+      <c r="G544" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H544" s="43"/>
+      <c r="I544" s="9"/>
+      <c r="J544" s="12"/>
+      <c r="K544" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14300,15 +14331,13 @@
       <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>8.7000000000000022E-2</v>
+        <v>7.9000000000000015E-2</v>
       </c>
       <c r="J3" s="47">
         <v>29</v>
@@ -14359,7 +14388,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>525.46600000000001</v>
+        <v>524.899</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/OLEGARIO TEOFISTA.xlsx
+++ b/REGULAR/CTO/OLEGARIO TEOFISTA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="359">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2163,9 +2163,9 @@
   <dimension ref="A2:K544"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <pane ySplit="4065" topLeftCell="A495" activePane="bottomLeft"/>
+      <pane ySplit="4065" topLeftCell="A498" activePane="bottomLeft"/>
       <selection activeCell="E16" sqref="E16"/>
-      <selection pane="bottomLeft" activeCell="E508" sqref="E508"/>
+      <selection pane="bottomLeft" activeCell="E514" sqref="E514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,7 +2332,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>176.024</v>
+        <v>176.274</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2342,7 +2342,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>348.875</v>
+        <v>350.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -13723,19 +13723,27 @@
       <c r="A515" s="40">
         <v>45292</v>
       </c>
-      <c r="B515" s="20"/>
-      <c r="C515" s="13"/>
-      <c r="D515" s="39"/>
+      <c r="B515" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C515" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D515" s="39">
+        <v>1</v>
+      </c>
       <c r="E515" s="9"/>
       <c r="F515" s="20"/>
-      <c r="G515" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G515" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H515" s="39"/>
       <c r="I515" s="9"/>
       <c r="J515" s="11"/>
-      <c r="K515" s="20"/>
+      <c r="K515" s="49">
+        <v>45334</v>
+      </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
@@ -14388,7 +14396,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>524.899</v>
+        <v>526.399</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
